--- a/current20240719143538平地.xlsx
+++ b/current20240719143538平地.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikeiy\source\repos\VRSJ2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206516B3-B3DD-4874-9120-FBA02BD9B0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBD966-17B6-48BC-B237-E18E4280A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{C715843D-33E0-4638-832A-AD97C8B3D03D}"/>
   </bookViews>
@@ -30847,748 +30847,748 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="251"/>
                 <c:pt idx="0">
-                  <c:v>0.1758581385596342</c:v>
+                  <c:v>0.17605242045545219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0072706737265262E-3</c:v>
+                  <c:v>0.1565733530032522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5753241064601444E-2</c:v>
+                  <c:v>0.17956775667328093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5914887336494949E-2</c:v>
+                  <c:v>0.14088094819546307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.373827181593658E-2</c:v>
+                  <c:v>6.9022493348150832E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15942401605649723</c:v>
+                  <c:v>0.11988713185444183</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8429488260722156E-3</c:v>
+                  <c:v>4.3057214787102185E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11695482361238584</c:v>
+                  <c:v>8.9376252095280426E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9520992479338512E-3</c:v>
+                  <c:v>2.4109770751499629E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7231860176791131E-2</c:v>
+                  <c:v>5.0949328166715498E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7716157524039264E-3</c:v>
+                  <c:v>0.14659434195206947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5385237117522629E-2</c:v>
+                  <c:v>0.13330243742093623</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14031991942132074</c:v>
+                  <c:v>8.2529847644897021E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18049205663292661</c:v>
+                  <c:v>4.6302844679489308E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16613220971933954</c:v>
+                  <c:v>2.7596371571444012E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1071978661776726</c:v>
+                  <c:v>0.10044145337903793</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18910029112753848</c:v>
+                  <c:v>0.10818697510085057</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3799935068192332E-2</c:v>
+                  <c:v>0.17472031889919276</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15872074939921588</c:v>
+                  <c:v>3.429017869653861E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.6942745369687695E-2</c:v>
+                  <c:v>7.5483112585105192E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14424533314548202</c:v>
+                  <c:v>7.080663201719653E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.15091813997616821</c:v>
+                  <c:v>0.18505740557705849</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4867135927203501E-2</c:v>
+                  <c:v>0.17004251228948583</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2313731084674793E-2</c:v>
+                  <c:v>0.11566198929249522</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.3783919491900222E-2</c:v>
+                  <c:v>0.16899101896244614</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.038101144719392E-2</c:v>
+                  <c:v>4.0771991385364584E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.11811763894306802</c:v>
+                  <c:v>0.13737677241933205</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3568191924186667E-2</c:v>
+                  <c:v>0.15006726513001947</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.14370739556033402</c:v>
+                  <c:v>5.1745325481044539E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.13154206126741275</c:v>
+                  <c:v>0.10952957546950078</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.12516280316104297</c:v>
+                  <c:v>0.18139697863884371</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.1821436043540372E-2</c:v>
+                  <c:v>3.2509876148261931E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.18748151742677416</c:v>
+                  <c:v>0.14306565017415548</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.6289516359385347E-2</c:v>
+                  <c:v>1.9635829779767012E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5662375661410755E-2</c:v>
+                  <c:v>7.0788774122658923E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.13124722512029594</c:v>
+                  <c:v>3.0072935621214249E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.19366412684847956</c:v>
+                  <c:v>4.530817365785509E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.15232571910824999</c:v>
+                  <c:v>7.6398804115558092E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.8571540834783766E-2</c:v>
+                  <c:v>2.8096923975692547E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.2767377943314509E-2</c:v>
+                  <c:v>9.4408107837231636E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.16605662505601146</c:v>
+                  <c:v>6.2543375266943757E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.929966940916314E-2</c:v>
+                  <c:v>4.5903669179656229E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.8602529908293478E-2</c:v>
+                  <c:v>0.13521345815469382</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.0900594174660431E-2</c:v>
+                  <c:v>0.17213120206147914</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.0020708273171093E-2</c:v>
+                  <c:v>0.10409890857873341</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2706217717474416E-2</c:v>
+                  <c:v>0.11483551302276314</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.2175146948965986E-2</c:v>
+                  <c:v>0.16887940975810689</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.15446305644160455</c:v>
+                  <c:v>0.12364952797074183</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.12921506921726653</c:v>
+                  <c:v>0.15946222923140629</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.18117517498442093</c:v>
+                  <c:v>4.5958289423967361E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1589364244986427</c:v>
+                  <c:v>1.3050195426979917E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.13527504619578815</c:v>
+                  <c:v>3.520069123235148E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.0620575003069428E-2</c:v>
+                  <c:v>0.15398590571319959</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.10658180967058682</c:v>
+                  <c:v>4.2884829218775948E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.19152416938041517</c:v>
+                  <c:v>0.16724202109383612</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.8534092141873189E-2</c:v>
+                  <c:v>0.17907911749545455</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9058280325544823E-2</c:v>
+                  <c:v>5.1947134638700557E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.16048231315192085</c:v>
+                  <c:v>0.1615567373724183</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7433887814854256E-2</c:v>
+                  <c:v>0.17284604467720621</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1250861323154879</c:v>
+                  <c:v>3.1790162635824772E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.12181800858979888</c:v>
+                  <c:v>9.2160906204834803E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.12110902456179118</c:v>
+                  <c:v>7.3421760475523956E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1502363688249565</c:v>
+                  <c:v>1.5463696663465943E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.5021464093257412E-3</c:v>
+                  <c:v>9.5817465866391019E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.1333403936295827E-2</c:v>
+                  <c:v>6.7036427942615509E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.1373298109084812E-2</c:v>
+                  <c:v>9.2901372279970088E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.9365243722160379E-4</c:v>
+                  <c:v>0.17767495706836817</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.7040024706110454E-3</c:v>
+                  <c:v>0.1969506966976603</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.7230655570364659E-2</c:v>
+                  <c:v>4.417249510439674E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.8625596288508298E-3</c:v>
+                  <c:v>0.12721520863824554</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.12011603228604394</c:v>
+                  <c:v>0.16079848400948921</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.11121058488239451</c:v>
+                  <c:v>0.10950100801234933</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.1874158476920675E-3</c:v>
+                  <c:v>0.12112077010159493</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.10394035952351277</c:v>
+                  <c:v>2.648778654631272E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.6069079943515929E-4</c:v>
+                  <c:v>0.11269663964963168</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.2167936285767439E-2</c:v>
+                  <c:v>6.4732110324192779E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.18725703805996802</c:v>
+                  <c:v>1.434932085404126E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.1957714677708528E-2</c:v>
+                  <c:v>0.13691986751214674</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.16373655414576413</c:v>
+                  <c:v>0.1624947058763935</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.19100676743032385</c:v>
+                  <c:v>6.358998243869729E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.11125839262927112</c:v>
+                  <c:v>1.2858917768553435E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1092026762687968E-2</c:v>
+                  <c:v>0.16392215844614702</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.5790531290127485E-2</c:v>
+                  <c:v>1.1648097118261558E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.2433447488488854E-2</c:v>
+                  <c:v>8.0684182865935108E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.13721182723524494</c:v>
+                  <c:v>0.17512523928713716</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.15095435060378512</c:v>
+                  <c:v>9.029895395870402E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.19274722557004409</c:v>
+                  <c:v>7.9356140355141921E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.5717040430804694E-2</c:v>
+                  <c:v>0.10393054022820299</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.10863146521363004</c:v>
+                  <c:v>0.15992638677034751</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.9210023894921786E-2</c:v>
+                  <c:v>8.8144884580913185E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.8224487240577821E-2</c:v>
+                  <c:v>3.4859189539509151E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.6695841581424003E-2</c:v>
+                  <c:v>0.10007157875577966</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.8375597963649893E-2</c:v>
+                  <c:v>0.12182158191754672</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.15115002733146737</c:v>
+                  <c:v>6.5195322766556915E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.10214388186350674</c:v>
+                  <c:v>5.7696186228022597E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.19261252386261318</c:v>
+                  <c:v>9.3407080545380564E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.17667463644859038</c:v>
+                  <c:v>1.5998880780233704E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.3546113623057897E-2</c:v>
+                  <c:v>4.5815764003340311E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.16771779343347082</c:v>
+                  <c:v>5.0770418582857024E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.9829566682150871E-2</c:v>
+                  <c:v>0.11926092863072112</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.0000609716021862E-2</c:v>
+                  <c:v>4.2981889852238546E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.18519768668432815</c:v>
+                  <c:v>0.16274002270033011</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.13429680875022007</c:v>
+                  <c:v>2.4170693916714114E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.18015226930803818</c:v>
+                  <c:v>0.14637524163603086</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.11248444141392522</c:v>
+                  <c:v>0.15220355071047173</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.8728973546286467E-2</c:v>
+                  <c:v>4.102175222763671E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.133875303742751</c:v>
+                  <c:v>6.6070610755577075E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.11666396997181452</c:v>
+                  <c:v>7.2291910908136012E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.15986111279451889</c:v>
+                  <c:v>9.6361644626571208E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.18865536297644875</c:v>
+                  <c:v>0.15374017301731505</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.15441655906962592</c:v>
+                  <c:v>5.1909105643950085E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.16489811094517312</c:v>
+                  <c:v>0.19062155033308475</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.15078381624548381</c:v>
+                  <c:v>0.13500496531739462</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.17155794197261512</c:v>
+                  <c:v>3.8591066874738678E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.15949129030612785</c:v>
+                  <c:v>0.19940067852930149</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.9882500369972156E-2</c:v>
+                  <c:v>2.5034320692218184E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.12585680854854517</c:v>
+                  <c:v>9.5102675031831327E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.11594256982106461</c:v>
+                  <c:v>0.16163952326477604</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.11023401498178775</c:v>
+                  <c:v>6.0400297690877298E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>6.29816834666556E-2</c:v>
+                  <c:v>4.6715372446960161E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.15659863722175446</c:v>
+                  <c:v>9.4861402955552662E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9.2725046672235092E-2</c:v>
+                  <c:v>0.16945294774729511</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.17078056833968669</c:v>
+                  <c:v>1.6707457580923801E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.18075956169082347</c:v>
+                  <c:v>0.16954834663582194</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.061365742515041E-2</c:v>
+                  <c:v>0.11122225740773679</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.1455175098596981E-2</c:v>
+                  <c:v>2.1394737280609366E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.1626082131613874</c:v>
+                  <c:v>0.14332572620698153</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>9.3049775106589211E-2</c:v>
+                  <c:v>0.15183820309847118</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6.3482624029217007E-3</c:v>
+                  <c:v>0.17531372931647612</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.1508761268275271</c:v>
+                  <c:v>2.7597378685266728E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>7.2032171075427809E-2</c:v>
+                  <c:v>0.18358144231169093</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.3826325972511834E-2</c:v>
+                  <c:v>0.11891483553599763</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6.5435383246723752E-2</c:v>
+                  <c:v>0.19485919297664664</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>9.1690857852641708E-2</c:v>
+                  <c:v>0.10149353399959066</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.16138634884630426</c:v>
+                  <c:v>0.11229815728025611</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8.2002929224130272E-2</c:v>
+                  <c:v>0.10232265552659632</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.9715976355075526E-2</c:v>
+                  <c:v>7.6825987173343643E-2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8.3932417189157334E-3</c:v>
+                  <c:v>0.10481171929327877</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.974224707182855E-2</c:v>
+                  <c:v>8.6757115019700612E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.13663245356560499</c:v>
+                  <c:v>0.17010497540922581</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>7.9601583274743828E-2</c:v>
+                  <c:v>0.16621508586152556</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>5.463566827803068E-2</c:v>
+                  <c:v>9.9378573554458061E-2</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.10218350998045263</c:v>
+                  <c:v>8.7786354296041536E-2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.081245198138695E-2</c:v>
+                  <c:v>0.18375702233832597</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>5.9060041490395015E-3</c:v>
+                  <c:v>2.5492333389372249E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.16031978994685558</c:v>
+                  <c:v>3.5466124883686993E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.0124382800905014E-2</c:v>
+                  <c:v>2.0500034797994782E-2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>7.9951828615501944E-2</c:v>
+                  <c:v>2.3064922779355568E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.16258912214849899</c:v>
+                  <c:v>2.2708015638681835E-2</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.18540544166022099</c:v>
+                  <c:v>0.17141076543846812</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.14377036983445099</c:v>
+                  <c:v>0.12363911942855801</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.14098423530822524</c:v>
+                  <c:v>0.14782355263270119</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>8.7221203070229028E-2</c:v>
+                  <c:v>2.9248104414448584E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.933631051095654E-2</c:v>
+                  <c:v>2.4189635463356042E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.19270457732655022</c:v>
+                  <c:v>8.8020958397576565E-2</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.8770751667069985E-2</c:v>
+                  <c:v>8.4232391680595514E-2</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>5.9633403493397436E-2</c:v>
+                  <c:v>0.10727097942784213</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.11585561163517669</c:v>
+                  <c:v>0.11259184255161603</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.13190604941667688</c:v>
+                  <c:v>0.16102439722351403</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>6.6011105569187573E-2</c:v>
+                  <c:v>8.217094588366369E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>8.5201814804011511E-2</c:v>
+                  <c:v>0.12569923073859168</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.10462603620546052</c:v>
+                  <c:v>0.12842314665655913</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>9.8772401351053862E-2</c:v>
+                  <c:v>2.5033033274942575E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>4.9888568324188753E-2</c:v>
+                  <c:v>7.6233205488385816E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.18379836463478508</c:v>
+                  <c:v>0.14478554027249457</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.4974479060811072E-2</c:v>
+                  <c:v>0.16877214273039279</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>5.6172830431402088E-2</c:v>
+                  <c:v>0.16643741682143048</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>8.2090213876793855E-2</c:v>
+                  <c:v>3.2212710765429954E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.18279185340270859</c:v>
+                  <c:v>6.1037940811185701E-2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>7.0760899684236864E-2</c:v>
+                  <c:v>4.6008478934197239E-2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.12550839319366305</c:v>
+                  <c:v>2.1764983428617348E-2</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>9.6796958097111863E-2</c:v>
+                  <c:v>0.17073351783416552</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.13469015845397353</c:v>
+                  <c:v>2.9452576539921838E-2</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.15534665826970706</c:v>
+                  <c:v>3.4123536579898972E-2</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>7.2354517277673711E-2</c:v>
+                  <c:v>5.6814228592434464E-4</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.1076560057733683</c:v>
+                  <c:v>2.8786035692177747E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.4191120929411949E-2</c:v>
+                  <c:v>0.17897803651468691</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>6.4921046011486142E-2</c:v>
+                  <c:v>5.8354910366575231E-2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.9752556100780552E-2</c:v>
+                  <c:v>8.967222814417386E-2</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.18716050643076168</c:v>
+                  <c:v>7.3790920886762673E-2</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>5.9352222899061613E-2</c:v>
+                  <c:v>0.13846224380450312</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.15366753635386196</c:v>
+                  <c:v>0.17816979711181563</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.8824257028248025E-2</c:v>
+                  <c:v>0.15417440513271291</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.10566734969786698</c:v>
+                  <c:v>0.15999681070993008</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.13730853600232754</c:v>
+                  <c:v>0.17167691915205074</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.2662255087149249E-2</c:v>
+                  <c:v>0.13611324404317923</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.18373091969885327</c:v>
+                  <c:v>7.5137149627680949E-2</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.14932982154291047</c:v>
+                  <c:v>2.9016185593535051E-2</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.17175971133766529</c:v>
+                  <c:v>0.15964599020680836</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.7290434278497335E-2</c:v>
+                  <c:v>0.17720677671135576</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.6682910783950542E-2</c:v>
+                  <c:v>0.19330796336284128</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.19189103959306431</c:v>
+                  <c:v>0.17930301556720635</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>8.5992530359157108E-3</c:v>
+                  <c:v>0.16947210478009134</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>9.6457693288301366E-2</c:v>
+                  <c:v>0.1504884161784224</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.18293154338679185</c:v>
+                  <c:v>9.1122743970836223E-2</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.10822260055424615</c:v>
+                  <c:v>2.2849859076337343E-2</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.14544859413516764</c:v>
+                  <c:v>1.6772293433514142E-2</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.13134382088716354</c:v>
+                  <c:v>6.5243524217591057E-3</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1.8630771953632476E-2</c:v>
+                  <c:v>0.1595412406983453</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>6.0636147558263437E-2</c:v>
+                  <c:v>5.7147255890938942E-2</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.11899522906067045</c:v>
+                  <c:v>0.10858477205624575</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>6.9604129163052794E-2</c:v>
+                  <c:v>0.14390869700179207</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.18771104500154345</c:v>
+                  <c:v>4.3109315807349051E-2</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>9.4935421542006793E-2</c:v>
+                  <c:v>0.16372334529680033</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.15729618311190219</c:v>
+                  <c:v>7.9262349855067304E-2</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>4.832697171819416E-2</c:v>
+                  <c:v>8.4290078412053701E-2</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.15665467490772034</c:v>
+                  <c:v>8.3373283417312302E-2</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.18184532517827595</c:v>
+                  <c:v>7.5984436389053306E-2</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1.9103333955635283E-2</c:v>
+                  <c:v>6.6454371253015856E-2</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4.5678130717666757E-2</c:v>
+                  <c:v>7.8110672762242317E-2</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.12269194432059834</c:v>
+                  <c:v>0.17280680727583503</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.19345702817515506</c:v>
+                  <c:v>0.1538484708815322</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>7.3308820022584459E-2</c:v>
+                  <c:v>0.12097943402331424</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.1327709156629526</c:v>
+                  <c:v>0.18413629871192572</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.18029631856754202</c:v>
+                  <c:v>2.4747008575817509E-2</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5.4897161800181005E-2</c:v>
+                  <c:v>7.0948559846423898E-2</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.11355777703549148</c:v>
+                  <c:v>9.2305994672119418E-3</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>7.7287461448809491E-3</c:v>
+                  <c:v>0.17366855012192173</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5.2543536519569806E-2</c:v>
+                  <c:v>5.3262254357928529E-2</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.17234221272303665</c:v>
+                  <c:v>2.5067959381628313E-2</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.17016355448458087</c:v>
+                  <c:v>0.14355372931976415</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.15026153904755415</c:v>
+                  <c:v>0.12383634164016011</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.14731936009137847</c:v>
+                  <c:v>0.11143534882423907</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.19052707592281648</c:v>
+                  <c:v>7.1147802767459273E-2</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.14322984311744905</c:v>
+                  <c:v>6.60286838604804E-2</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.160714596080033</c:v>
+                  <c:v>0.19124238905306634</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.13789194564396409</c:v>
+                  <c:v>0.12326347955949429</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.15621306090606255</c:v>
+                  <c:v>8.1081147885180976E-2</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3.0338909610067778E-2</c:v>
+                  <c:v>0.12835415009314674</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1.9135930333314068E-3</c:v>
+                  <c:v>0.19622711689225508</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.11495796362388649</c:v>
+                  <c:v>0.18057717670123807</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>3.1912120970732552E-2</c:v>
+                  <c:v>0.17333100072024893</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>3.9852244306620245E-2</c:v>
+                  <c:v>7.8002666524799105E-2</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>4.3088083276668847E-2</c:v>
+                  <c:v>6.1654825862910094E-2</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>5.2904946402926339E-2</c:v>
+                  <c:v>8.5138967962879855E-2</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.1881212815311106</c:v>
+                  <c:v>0.14276360130239887</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>5.6298173172896586E-2</c:v>
+                  <c:v>0.16393035265704659</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.13476196170154367</c:v>
+                  <c:v>8.7130205723084928E-2</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.1941137083892184</c:v>
+                  <c:v>8.0993860293899128E-2</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.15235261347508866</c:v>
+                  <c:v>1.8884233383478846E-2</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.15612144585530491</c:v>
+                  <c:v>7.5447301563737496E-2</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.16399594959950947</c:v>
+                  <c:v>0.11849300823804371</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>5.1692365805431885E-2</c:v>
+                  <c:v>5.5234917621340189E-2</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.12099417967274145</c:v>
+                  <c:v>3.3028696230532596E-2</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>3.5615499829871423E-2</c:v>
+                  <c:v>0.12378514252357194</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>4.8068815955805123E-2</c:v>
+                  <c:v>0.1021025988609793</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.13331428675772633</c:v>
+                  <c:v>0.17199184858817484</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>7.8344905652587296E-2</c:v>
+                  <c:v>8.7462611480192909E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32389,748 +32389,748 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="251"/>
                 <c:pt idx="0">
-                  <c:v>0.1758581385596342</c:v>
+                  <c:v>0.17605242045545219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0072706737265262E-3</c:v>
+                  <c:v>0.1565733530032522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5753241064601444E-2</c:v>
+                  <c:v>0.17956775667328093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5914887336494949E-2</c:v>
+                  <c:v>0.14088094819546307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61584304069614304</c:v>
+                  <c:v>0.59112726222835721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1947001964665802</c:v>
+                  <c:v>1.1551633122645248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5375766782864309</c:v>
+                  <c:v>1.5737909442474609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1169548236123852</c:v>
+                  <c:v>2.0893762520952799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4409978152828162</c:v>
+                  <c:v>2.4591554867863819</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.875658984922981</c:v>
+                  <c:v>2.8335220575628615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1811849769173444</c:v>
+                  <c:v>3.3200077031170099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5294868522552769</c:v>
+                  <c:v>3.5974040525586908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8358380494664668</c:v>
+                  <c:v>3.7037711148096357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0441953617891997</c:v>
+                  <c:v>3.9100061498357621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1319116552145809</c:v>
+                  <c:v>3.9933758170666858</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1071978661776729</c:v>
+                  <c:v>4.1004414533790383</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0827545622129948</c:v>
+                  <c:v>4.0018412461863067</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6216482805695507</c:v>
+                  <c:v>3.7525686644005511</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2208985758902862</c:v>
+                  <c:v>3.0656068443607243</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4292538472025349</c:v>
+                  <c:v>2.4377942144179521</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6437586009512573</c:v>
+                  <c:v>1.5703198998229717</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65091813997616643</c:v>
+                  <c:v>0.68505740557705674</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.5409918607931179</c:v>
+                  <c:v>-0.43581648443083554</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.7521490252468106</c:v>
+                  <c:v>-1.6688007670389902</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.9062160805080994</c:v>
+                  <c:v>-2.8310089810375536</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4.1851562322213187</c:v>
+                  <c:v>-4.2114600445299759</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5.2760233643366155</c:v>
+                  <c:v>-5.2567642308603517</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6.4764318080758168</c:v>
+                  <c:v>-6.3499327348699843</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-7.3558058722454414</c:v>
+                  <c:v>-7.4477679423247309</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.2307690405654323</c:v>
+                  <c:v>-8.2527815263633428</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-8.9370150233300283</c:v>
+                  <c:v>-8.8807808478522272</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-9.4860269094578182</c:v>
+                  <c:v>-9.545338469353096</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-9.7061727536586826</c:v>
+                  <c:v>-9.7505886209112997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9.9737104836406143</c:v>
+                  <c:v>-9.9803641702202324</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9.7458184083620676</c:v>
+                  <c:v>-9.6906920099008182</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.9309306013707737</c:v>
+                  <c:v>-9.0321048908698547</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-7.7560833414573507</c:v>
+                  <c:v>-7.9044392946479753</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-6.3476742808917459</c:v>
+                  <c:v>-6.4236011958844372</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-4.763161774882863</c:v>
+                  <c:v>-4.783636391741954</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.937232622056686</c:v>
+                  <c:v>-2.9905591892162775</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.0222100592263426</c:v>
+                  <c:v>-1.1257233090154102</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.55929966940915865</c:v>
+                  <c:v>0.54590366917965183</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0183499982141306</c:v>
+                  <c:v>2.0849609264605311</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.1430784206657298</c:v>
+                  <c:v>3.2343090285525484</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7915014922966499</c:v>
+                  <c:v>3.8655796926022123</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0327062177174744</c:v>
+                  <c:v>4.1148355130227632</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.9358294180344231</c:v>
+                  <c:v>4.0625336808435639</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.7323114019429631</c:v>
+                  <c:v>3.7014978734721002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.1913928957083377</c:v>
+                  <c:v>3.2216400557224776</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.5434862768172644</c:v>
+                  <c:v>2.4082693912568107</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6584496923044179</c:v>
+                  <c:v>1.5125634632327551</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.63527504619579123</c:v>
+                  <c:v>0.50352006912323821</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.55523842171725202</c:v>
+                  <c:v>-0.45187309100712181</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.6778809466608986</c:v>
+                  <c:v>-1.7415779271127094</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-2.8084758306195892</c:v>
+                  <c:v>-2.8327579789061685</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.1270031515266394</c:v>
+                  <c:v>-4.0364581261730574</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-5.3450827229541318</c:v>
+                  <c:v>-5.342193868640976</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-6.3395176868480831</c:v>
+                  <c:v>-6.3384432626275853</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-7.4420793799909211</c:v>
+                  <c:v>-7.3266672231285686</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-8.2372249695173601</c:v>
+                  <c:v>-8.3305209391970241</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-8.9403598179012729</c:v>
+                  <c:v>-8.9700169202862359</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-9.4567393209395672</c:v>
+                  <c:v>-9.5044265850258345</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-9.7434179022605001</c:v>
+                  <c:v>-9.8781905744219909</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-9.990497853590675</c:v>
+                  <c:v>-9.9041825341336089</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-9.7001473800871807</c:v>
+                  <c:v>-9.6944443560808597</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-8.9908045283819842</c:v>
+                  <c:v>-9.0528876892630716</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-7.9487538158686135</c:v>
+                  <c:v>-7.7720725112374671</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-6.4962959975293844</c:v>
+                  <c:v>-6.3030493033023349</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-4.7445026601472824</c:v>
+                  <c:v>-4.7675608206132498</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.9911374403711415</c:v>
+                  <c:v>-2.872784791361747</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.06815065199631</c:v>
+                  <c:v>-1.0274682002728648</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.61121058488239011</c:v>
+                  <c:v>0.60950100801234486</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.9549348841535292</c:v>
+                  <c:v>2.0708682384074319</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.1661181860145824</c:v>
+                  <c:v>3.0886656130373824</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.7617414748229141</c:v>
+                  <c:v>3.8741774236731104</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.0721679362857675</c:v>
+                  <c:v>4.0647321103241927</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.0809113091454252</c:v>
+                  <c:v>3.9080035919394982</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.6198060601790671</c:v>
+                  <c:v>3.7147682130135053</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.2259143806368353</c:v>
+                  <c:v>3.2246725323674648</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.5533178692631675</c:v>
+                  <c:v>2.4259010842715409</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.6107716604350464</c:v>
+                  <c:v>1.5123721855743286</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.51109202676269105</c:v>
+                  <c:v>0.6639221584461501</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.59006846543018321</c:v>
+                  <c:v>-0.5942108996020492</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.7020293088430074</c:v>
+                  <c:v>-1.7037785734655613</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-2.862800390069514</c:v>
+                  <c:v>-2.8248869780176218</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-4.0645828930647276</c:v>
+                  <c:v>-4.1252382897098085</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-5.2013937777096322</c:v>
+                  <c:v>-5.3147848629245349</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-6.4742829595691882</c:v>
+                  <c:v>-6.3960694597717902</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-7.3908818025921521</c:v>
+                  <c:v>-7.3395868810354346</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-8.3231089310618813</c:v>
+                  <c:v>-8.2741740703758904</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-8.9639533392504926</c:v>
+                  <c:v>-9.0273186369515628</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-9.5211525039199341</c:v>
+                  <c:v>-9.4777767667455795</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-9.8552786731218056</c:v>
+                  <c:v>-9.7718326891679101</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-9.8488499726685319</c:v>
+                  <c:v>-9.9348046772334424</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-9.6593369021599695</c:v>
+                  <c:v>-9.7037845977954529</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-8.8695653026284571</c:v>
+                  <c:v>-8.9687707459456885</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-7.7730728318572453</c:v>
+                  <c:v>-7.933748587525602</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-6.406453886376938</c:v>
+                  <c:v>-6.4954184235996619</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.6440155222841764</c:v>
+                  <c:v>-4.7609628971347897</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2.9401704333178418</c:v>
+                  <c:v>-2.8807390713692715</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.098266074566332</c:v>
+                  <c:v>-1.1452847944301154</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.68519768668432368</c:v>
+                  <c:v>0.66274002270032573</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.0840442770560572</c:v>
+                  <c:v>1.9739181622225512</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.2423300957991077</c:v>
+                  <c:v>3.2085530681271002</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.873965225437404</c:v>
+                  <c:v>3.9136843347339503</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.0187289735462866</c:v>
+                  <c:v>4.0410217522276364</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.0275295748282076</c:v>
+                  <c:v>3.959724881841034</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.6945123154731729</c:v>
+                  <c:v>3.6501402564094945</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3.2220389392855902</c:v>
+                  <c:v>3.1585394711176424</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.5509664648092922</c:v>
+                  <c:v>2.5160512748501587</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.6539298268754012</c:v>
+                  <c:v>1.5514223734497252</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.66489811094517626</c:v>
+                  <c:v>0.69062155033308792</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.45507518047482692</c:v>
+                  <c:v>-0.47085403140291615</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-1.6129048143588811</c:v>
+                  <c:v>-1.7458716894567576</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-2.8405209269986313</c:v>
+                  <c:v>-2.8006115387754575</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-4.1856547432985405</c:v>
+                  <c:v>-4.190502922976294</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-5.2682841947311312</c:v>
+                  <c:v>-5.2990383282478453</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-6.3840574301789283</c:v>
+                  <c:v>-6.3383604767352164</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-7.3892792528239948</c:v>
+                  <c:v>-7.4934732380366942</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-8.2993372714901472</c:v>
+                  <c:v>-8.3156035825098442</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-8.9055791892693161</c:v>
+                  <c:v>-8.9673164235355181</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-9.485123298829123</c:v>
+                  <c:v>-9.4083953977540631</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-9.722873702745769</c:v>
+                  <c:v>-9.8769468135045315</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-9.8192404383091763</c:v>
+                  <c:v>-9.8304516533641788</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-9.7308671265983264</c:v>
+                  <c:v>-9.6502585266157386</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-9.040722651392473</c:v>
+                  <c:v>-9.0407830892104606</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-7.7871392551444476</c:v>
+                  <c:v>-7.8064217420988538</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-6.4069502248934063</c:v>
+                  <c:v>-6.3481617969015245</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-4.8053850533147253</c:v>
+                  <c:v>-4.6364195864011712</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-2.8491238731724655</c:v>
+                  <c:v>-2.9724026213147257</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-1.1162345132069262</c:v>
+                  <c:v>-1.0046852419706629</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.51382632597250744</c:v>
+                  <c:v>0.61891483553599325</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.0151828515525607</c:v>
+                  <c:v>2.1446066612824839</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.1538686843437111</c:v>
+                  <c:v>3.1636713604906603</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.9228671328697828</c:v>
+                  <c:v>3.8737789413037347</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4.0820029292241307</c:v>
+                  <c:v>4.1023226555265966</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.9233702474405323</c:v>
+                  <c:v>3.9704802582588004</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.5862415872202744</c:v>
+                  <c:v>3.6826600647946375</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.1319200735628998</c:v>
+                  <c:v>3.1489349415107717</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.4989435553984487</c:v>
+                  <c:v>2.5324160772420692</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.5791148510805191</c:v>
+                  <c:v>1.6657283536673009</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.55463566827803379</c:v>
+                  <c:v>0.59937857355446122</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.50367548673985807</c:v>
+                  <c:v>-0.5180726424242692</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-1.7636503043501093</c:v>
+                  <c:v>-1.6007057339931703</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-2.9941062131557197</c:v>
+                  <c:v>-2.9745198839153866</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-4.0552174537216565</c:v>
+                  <c:v>-4.1800711187848254</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-5.3640166204787718</c:v>
+                  <c:v>-5.3736409684816815</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-6.420048171384491</c:v>
+                  <c:v>-6.4769350772206371</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-7.3369241456572833</c:v>
+                  <c:v>-7.4768052521671002</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-8.1769135132965829</c:v>
+                  <c:v>-8.1909081895183355</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-8.9184074566566203</c:v>
+                  <c:v>-8.9385387070625129</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-9.4368641101931328</c:v>
+                  <c:v>-9.4300247928686574</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-9.8064330680152274</c:v>
+                  <c:v>-9.8907294606440104</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-9.9606636894890439</c:v>
+                  <c:v>-9.9758103645366436</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-9.568776206696926</c:v>
+                  <c:v>-9.6734598256258995</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-9.0434070748239996</c:v>
+                  <c:v>-8.9779454348104739</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-7.8901140648124377</c:v>
+                  <c:v>-7.8424764888779936</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-6.3841443883648186</c:v>
+                  <c:v>-6.3874081574483794</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-4.6798272663009701</c:v>
+                  <c:v>-4.650708918494133</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-2.9339888944308048</c:v>
+                  <c:v>-2.9917829054116263</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-1.1030648694783425</c:v>
+                  <c:v>-1.0625674535437621</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.60462603620545607</c:v>
+                  <c:v>0.62842314665655463</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.0485198696568911</c:v>
+                  <c:v>1.9747805015807798</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.1120663948152583</c:v>
+                  <c:v>3.1384110319794551</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.9452791486582637</c:v>
+                  <c:v>3.9062663242959732</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>4.0249744790608109</c:v>
+                  <c:v>4.1687721427303925</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.9498271015168589</c:v>
+                  <c:v>4.0600916879068878</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.6599385593781526</c:v>
+                  <c:v>3.6100610562667885</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.2449696798937797</c:v>
+                  <c:v>3.1232157673022569</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.4330720015170804</c:v>
+                  <c:v>2.4083195807670408</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.6250216609994383</c:v>
+                  <c:v>1.5212782512343925</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.59679695809711497</c:v>
+                  <c:v>0.67073351783416868</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.47116883826633721</c:v>
+                  <c:v>-0.5764064201803889</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-1.6291160980617891</c:v>
+                  <c:v>-1.7503392197515972</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-2.9276577000270851</c:v>
+                  <c:v>-2.9994440750188347</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-4.1078812378951444</c:v>
+                  <c:v>-4.1867512079763349</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-5.3599498823502643</c:v>
+                  <c:v>-5.2151629667649892</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-6.4350789539885067</c:v>
+                  <c:v>-6.4416450896334174</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-7.4797607117050013</c:v>
+                  <c:v>-7.4098410396616083</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-8.1751584485260427</c:v>
+                  <c:v>-8.2885280340700405</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-9.0028256035920098</c:v>
+                  <c:v>-8.9237155826865688</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-9.4241808091474972</c:v>
+                  <c:v>-9.3996785483895433</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-9.8448300140572087</c:v>
+                  <c:v>-9.7394798659527435</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-9.8943326503021325</c:v>
+                  <c:v>-9.8400031892900692</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-9.6241722480211482</c:v>
+                  <c:v>-9.5898038648714259</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-9.0195155714039199</c:v>
+                  <c:v>-8.926064582447891</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-7.7660165486069817</c:v>
+                  <c:v>-7.8746103186781546</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-6.3506701784570847</c:v>
+                  <c:v>-6.4709838144064609</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-4.639973604379982</c:v>
+                  <c:v>-4.6520873255108386</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-2.972709565721495</c:v>
+                  <c:v>-2.8227932232886368</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-1.1515837734984034</c:v>
+                  <c:v>-0.99495872091951265</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.69189103959305986</c:v>
+                  <c:v>0.67930301556720196</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1.9583467213417529</c:v>
+                  <c:v>2.1192195730859282</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.158635519779371</c:v>
+                  <c:v>3.2126662426694921</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.9444123274102707</c:v>
+                  <c:v>3.8526035279943152</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4.1082226005542459</c:v>
+                  <c:v>4.0228498590763371</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4.0391028652206247</c:v>
+                  <c:v>3.9104265645189709</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.7091921663885219</c:v>
+                  <c:v>3.5843726979231176</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.0808085984447038</c:v>
+                  <c:v>3.2217190671894165</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.4229472493911071</c:v>
+                  <c:v>2.4194583577237827</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.6185084968664456</c:v>
+                  <c:v>1.608098039862021</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.56960412916305592</c:v>
+                  <c:v>0.6439086970017952</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-0.41814795171876729</c:v>
+                  <c:v>-0.56274968091296174</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-1.6895273347894895</c:v>
+                  <c:v>-1.620739411034696</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-2.8427160341928568</c:v>
+                  <c:v>-2.9207498674496915</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-4.1672102719503181</c:v>
+                  <c:v>-4.1312471652564584</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-5.2374863283719559</c:v>
+                  <c:v>-5.3107677198623637</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-6.3181546748217166</c:v>
+                  <c:v>-6.4240155636109399</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-7.4804099338501473</c:v>
+                  <c:v>-7.4330588965527662</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-8.316640824239137</c:v>
+                  <c:v>-8.2842082821945606</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-8.939485882170473</c:v>
+                  <c:v>-8.8893710192152362</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-9.3843913173262035</c:v>
+                  <c:v>-9.4239998746198257</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-9.820345451062872</c:v>
+                  <c:v>-9.7726748370621426</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-9.8672290843370476</c:v>
+                  <c:v>-9.8158637012880749</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.18029631856754202</c:v>
+                  <c:v>2.4747008575817509E-2</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5.4897161800181005E-2</c:v>
+                  <c:v>7.0948559846423898E-2</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.11355777703549148</c:v>
+                  <c:v>9.2305994672119418E-3</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>7.7287461448809491E-3</c:v>
+                  <c:v>0.17366855012192173</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5.2543536519569806E-2</c:v>
+                  <c:v>5.3262254357928529E-2</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.17234221272303665</c:v>
+                  <c:v>2.5067959381628313E-2</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.17016355448458087</c:v>
+                  <c:v>0.14355372931976415</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.15026153904755415</c:v>
+                  <c:v>0.12383634164016011</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.14731936009137847</c:v>
+                  <c:v>0.11143534882423907</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.19052707592281648</c:v>
+                  <c:v>7.1147802767459273E-2</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.14322984311744905</c:v>
+                  <c:v>6.60286838604804E-2</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.160714596080033</c:v>
+                  <c:v>0.19124238905306634</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.13789194564396409</c:v>
+                  <c:v>0.12326347955949429</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.15621306090606255</c:v>
+                  <c:v>8.1081147885180976E-2</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3.0338909610067778E-2</c:v>
+                  <c:v>0.12835415009314674</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1.9135930333314068E-3</c:v>
+                  <c:v>0.19622711689225508</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.11495796362388649</c:v>
+                  <c:v>0.18057717670123807</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>3.1912120970732552E-2</c:v>
+                  <c:v>0.17333100072024893</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>3.9852244306620245E-2</c:v>
+                  <c:v>7.8002666524799105E-2</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>4.3088083276668847E-2</c:v>
+                  <c:v>6.1654825862910094E-2</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>5.2904946402926339E-2</c:v>
+                  <c:v>8.5138967962879855E-2</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.1881212815311106</c:v>
+                  <c:v>0.14276360130239887</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>5.6298173172896586E-2</c:v>
+                  <c:v>0.16393035265704659</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.13476196170154367</c:v>
+                  <c:v>8.7130205723084928E-2</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.1941137083892184</c:v>
+                  <c:v>8.0993860293899128E-2</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.15235261347508866</c:v>
+                  <c:v>1.8884233383478846E-2</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.15612144585530491</c:v>
+                  <c:v>7.5447301563737496E-2</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.16399594959950947</c:v>
+                  <c:v>0.11849300823804371</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>5.1692365805431885E-2</c:v>
+                  <c:v>5.5234917621340189E-2</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.12099417967274145</c:v>
+                  <c:v>3.3028696230532596E-2</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>3.5615499829871423E-2</c:v>
+                  <c:v>0.12378514252357194</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>4.8068815955805123E-2</c:v>
+                  <c:v>0.1021025988609793</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.13331428675772633</c:v>
+                  <c:v>0.17199184858817484</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>7.8344905652587296E-2</c:v>
+                  <c:v>8.7462611480192909E-2</c:v>
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>0</c:v>
@@ -40500,7 +40500,7 @@
   <dimension ref="A1:AC252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -40649,11 +40649,11 @@
       </c>
       <c r="U2">
         <f ca="1">$W$2*RAND()</f>
-        <v>0.1758581385596342</v>
+        <v>0.17605242045545219</v>
       </c>
       <c r="V2">
         <f ca="1">T2+U2</f>
-        <v>0.1758581385596342</v>
+        <v>0.17605242045545219</v>
       </c>
       <c r="W2">
         <v>0.2</v>
@@ -40737,11 +40737,11 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" ca="1" si="0">$W$2*RAND()</f>
-        <v>4.0072706737265262E-3</v>
+        <v>0.1565733530032522</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V66" ca="1" si="1">T3+U3</f>
-        <v>4.0072706737265262E-3</v>
+        <v>0.1565733530032522</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y66" si="2">B3*$AC$2</f>
@@ -40819,18 +40819,18 @@
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5753241064601444E-2</v>
+        <v>0.17956775667328093</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5753241064601444E-2</v>
+        <v>0.17956775667328093</v>
       </c>
       <c r="Y4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z3:Z66" si="4">G4*$AC$2</f>
+        <f t="shared" ref="Z4:Z66" si="4">G4*$AC$2</f>
         <v>0</v>
       </c>
       <c r="AA4">
@@ -40902,11 +40902,11 @@
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5914887336494949E-2</v>
+        <v>0.14088094819546307</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5914887336494949E-2</v>
+        <v>0.14088094819546307</v>
       </c>
       <c r="Y5">
         <f t="shared" si="2"/>
@@ -40985,11 +40985,11 @@
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.373827181593658E-2</v>
+        <v>6.9022493348150832E-2</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61584304069614304</v>
+        <v>0.59112726222835721</v>
       </c>
       <c r="Y6">
         <f t="shared" si="2"/>
@@ -41068,11 +41068,11 @@
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15942401605649723</v>
+        <v>0.11988713185444183</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1947001964665802</v>
+        <v>1.1551633122645248</v>
       </c>
       <c r="Y7">
         <f t="shared" si="2"/>
@@ -41151,11 +41151,11 @@
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8429488260722156E-3</v>
+        <v>4.3057214787102185E-2</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5375766782864309</v>
+        <v>1.5737909442474609</v>
       </c>
       <c r="Y8">
         <f t="shared" si="2"/>
@@ -41234,11 +41234,11 @@
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11695482361238584</v>
+        <v>8.9376252095280426E-2</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1169548236123852</v>
+        <v>2.0893762520952799</v>
       </c>
       <c r="Y9">
         <f t="shared" si="2"/>
@@ -41317,11 +41317,11 @@
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9520992479338512E-3</v>
+        <v>2.4109770751499629E-2</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4409978152828162</v>
+        <v>2.4591554867863819</v>
       </c>
       <c r="Y10">
         <f t="shared" si="2"/>
@@ -41400,11 +41400,11 @@
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7231860176791131E-2</v>
+        <v>5.0949328166715498E-3</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="1"/>
-        <v>2.875658984922981</v>
+        <v>2.8335220575628615</v>
       </c>
       <c r="Y11">
         <f t="shared" si="2"/>
@@ -41483,11 +41483,11 @@
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7716157524039264E-3</v>
+        <v>0.14659434195206947</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1811849769173444</v>
+        <v>3.3200077031170099</v>
       </c>
       <c r="Y12">
         <f t="shared" si="2"/>
@@ -41566,11 +41566,11 @@
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5385237117522629E-2</v>
+        <v>0.13330243742093623</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5294868522552769</v>
+        <v>3.5974040525586908</v>
       </c>
       <c r="Y13">
         <f t="shared" si="2"/>
@@ -41649,11 +41649,11 @@
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14031991942132074</v>
+        <v>8.2529847644897021E-3</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8358380494664668</v>
+        <v>3.7037711148096357</v>
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
@@ -41732,11 +41732,11 @@
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18049205663292661</v>
+        <v>4.6302844679489308E-2</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0441953617891997</v>
+        <v>3.9100061498357621</v>
       </c>
       <c r="Y15">
         <f t="shared" si="2"/>
@@ -41815,11 +41815,11 @@
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16613220971933954</v>
+        <v>2.7596371571444012E-2</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1319116552145809</v>
+        <v>3.9933758170666858</v>
       </c>
       <c r="Y16">
         <f t="shared" si="2"/>
@@ -41898,11 +41898,11 @@
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1071978661776726</v>
+        <v>0.10044145337903793</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1071978661776729</v>
+        <v>4.1004414533790383</v>
       </c>
       <c r="Y17">
         <f t="shared" si="2"/>
@@ -41981,11 +41981,11 @@
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18910029112753848</v>
+        <v>0.10818697510085057</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0827545622129948</v>
+        <v>4.0018412461863067</v>
       </c>
       <c r="Y18">
         <f t="shared" si="2"/>
@@ -42064,11 +42064,11 @@
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3799935068192332E-2</v>
+        <v>0.17472031889919276</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6216482805695507</v>
+        <v>3.7525686644005511</v>
       </c>
       <c r="Y19">
         <f t="shared" si="2"/>
@@ -42147,11 +42147,11 @@
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15872074939921588</v>
+        <v>3.429017869653861E-3</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2208985758902862</v>
+        <v>3.0656068443607243</v>
       </c>
       <c r="Y20">
         <f t="shared" si="2"/>
@@ -42230,11 +42230,11 @@
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6942745369687695E-2</v>
+        <v>7.5483112585105192E-2</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4292538472025349</v>
+        <v>2.4377942144179521</v>
       </c>
       <c r="Y21">
         <f t="shared" si="2"/>
@@ -42313,11 +42313,11 @@
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14424533314548202</v>
+        <v>7.080663201719653E-2</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6437586009512573</v>
+        <v>1.5703198998229717</v>
       </c>
       <c r="Y22">
         <f t="shared" si="2"/>
@@ -42396,11 +42396,11 @@
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15091813997616821</v>
+        <v>0.18505740557705849</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65091813997616643</v>
+        <v>0.68505740557705674</v>
       </c>
       <c r="Y23">
         <f t="shared" si="2"/>
@@ -42479,11 +42479,11 @@
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4867135927203501E-2</v>
+        <v>0.17004251228948583</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5409918607931179</v>
+        <v>-0.43581648443083554</v>
       </c>
       <c r="Y24">
         <f t="shared" si="2"/>
@@ -42562,11 +42562,11 @@
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2313731084674793E-2</v>
+        <v>0.11566198929249522</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7521490252468106</v>
+        <v>-1.6688007670389902</v>
       </c>
       <c r="Y25">
         <f t="shared" si="2"/>
@@ -42645,11 +42645,11 @@
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3783919491900222E-2</v>
+        <v>0.16899101896244614</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9062160805080994</v>
+        <v>-2.8310089810375536</v>
       </c>
       <c r="Y26">
         <f t="shared" si="2"/>
@@ -42728,11 +42728,11 @@
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="0"/>
-        <v>3.038101144719392E-2</v>
+        <v>4.0771991385364584E-3</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1851562322213187</v>
+        <v>-4.2114600445299759</v>
       </c>
       <c r="Y27">
         <f t="shared" si="2"/>
@@ -42811,11 +42811,11 @@
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11811763894306802</v>
+        <v>0.13737677241933205</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.2760233643366155</v>
+        <v>-5.2567642308603517</v>
       </c>
       <c r="Y28">
         <f t="shared" si="2"/>
@@ -42894,11 +42894,11 @@
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3568191924186667E-2</v>
+        <v>0.15006726513001947</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4764318080758168</v>
+        <v>-6.3499327348699843</v>
       </c>
       <c r="Y29">
         <f t="shared" si="2"/>
@@ -42977,11 +42977,11 @@
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14370739556033402</v>
+        <v>5.1745325481044539E-2</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.3558058722454414</v>
+        <v>-7.4477679423247309</v>
       </c>
       <c r="Y30">
         <f t="shared" si="2"/>
@@ -43060,11 +43060,11 @@
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13154206126741275</v>
+        <v>0.10952957546950078</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.2307690405654323</v>
+        <v>-8.2527815263633428</v>
       </c>
       <c r="Y31">
         <f t="shared" si="2"/>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12516280316104297</v>
+        <v>0.18139697863884371</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.9370150233300283</v>
+        <v>-8.8807808478522272</v>
       </c>
       <c r="Y32">
         <f t="shared" si="2"/>
@@ -43226,11 +43226,11 @@
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1821436043540372E-2</v>
+        <v>3.2509876148261931E-2</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.4860269094578182</v>
+        <v>-9.545338469353096</v>
       </c>
       <c r="Y33">
         <f t="shared" si="2"/>
@@ -43309,11 +43309,11 @@
       </c>
       <c r="U34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18748151742677416</v>
+        <v>0.14306565017415548</v>
       </c>
       <c r="V34">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7061727536586826</v>
+        <v>-9.7505886209112997</v>
       </c>
       <c r="Y34">
         <f t="shared" si="2"/>
@@ -43392,11 +43392,11 @@
       </c>
       <c r="U35">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6289516359385347E-2</v>
+        <v>1.9635829779767012E-2</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.9737104836406143</v>
+        <v>-9.9803641702202324</v>
       </c>
       <c r="Y35">
         <f t="shared" si="2"/>
@@ -43475,11 +43475,11 @@
       </c>
       <c r="U36">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5662375661410755E-2</v>
+        <v>7.0788774122658923E-2</v>
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7458184083620676</v>
+        <v>-9.6906920099008182</v>
       </c>
       <c r="Y36">
         <f t="shared" si="2"/>
@@ -43558,11 +43558,11 @@
       </c>
       <c r="U37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13124722512029594</v>
+        <v>3.0072935621214249E-2</v>
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.9309306013707737</v>
+        <v>-9.0321048908698547</v>
       </c>
       <c r="Y37">
         <f t="shared" si="2"/>
@@ -43641,11 +43641,11 @@
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19366412684847956</v>
+        <v>4.530817365785509E-2</v>
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.7560833414573507</v>
+        <v>-7.9044392946479753</v>
       </c>
       <c r="Y38">
         <f t="shared" si="2"/>
@@ -43724,11 +43724,11 @@
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15232571910824999</v>
+        <v>7.6398804115558092E-2</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.3476742808917459</v>
+        <v>-6.4236011958844372</v>
       </c>
       <c r="Y39">
         <f t="shared" si="2"/>
@@ -43807,11 +43807,11 @@
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8571540834783766E-2</v>
+        <v>2.8096923975692547E-2</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.763161774882863</v>
+        <v>-4.783636391741954</v>
       </c>
       <c r="Y40">
         <f t="shared" si="2"/>
@@ -43890,11 +43890,11 @@
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2767377943314509E-2</v>
+        <v>9.4408107837231636E-3</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.937232622056686</v>
+        <v>-2.9905591892162775</v>
       </c>
       <c r="Y41">
         <f t="shared" si="2"/>
@@ -43973,11 +43973,11 @@
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16605662505601146</v>
+        <v>6.2543375266943757E-2</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0222100592263426</v>
+        <v>-1.1257233090154102</v>
       </c>
       <c r="Y42">
         <f t="shared" si="2"/>
@@ -44056,11 +44056,11 @@
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="0"/>
-        <v>5.929966940916314E-2</v>
+        <v>4.5903669179656229E-2</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55929966940915865</v>
+        <v>0.54590366917965183</v>
       </c>
       <c r="Y43">
         <f t="shared" si="2"/>
@@ -44139,11 +44139,11 @@
       </c>
       <c r="U44">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8602529908293478E-2</v>
+        <v>0.13521345815469382</v>
       </c>
       <c r="V44">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0183499982141306</v>
+        <v>2.0849609264605311</v>
       </c>
       <c r="Y44">
         <f t="shared" si="2"/>
@@ -44222,11 +44222,11 @@
       </c>
       <c r="U45">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0900594174660431E-2</v>
+        <v>0.17213120206147914</v>
       </c>
       <c r="V45">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1430784206657298</v>
+        <v>3.2343090285525484</v>
       </c>
       <c r="Y45">
         <f t="shared" si="2"/>
@@ -44305,11 +44305,11 @@
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0020708273171093E-2</v>
+        <v>0.10409890857873341</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7915014922966499</v>
+        <v>3.8655796926022123</v>
       </c>
       <c r="Y46">
         <f t="shared" si="2"/>
@@ -44388,11 +44388,11 @@
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2706217717474416E-2</v>
+        <v>0.11483551302276314</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0327062177174744</v>
+        <v>4.1148355130227632</v>
       </c>
       <c r="Y47">
         <f t="shared" si="2"/>
@@ -44471,11 +44471,11 @@
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2175146948965986E-2</v>
+        <v>0.16887940975810689</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9358294180344231</v>
+        <v>4.0625336808435639</v>
       </c>
       <c r="Y48">
         <f t="shared" si="2"/>
@@ -44554,11 +44554,11 @@
       </c>
       <c r="U49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15446305644160455</v>
+        <v>0.12364952797074183</v>
       </c>
       <c r="V49">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7323114019429631</v>
+        <v>3.7014978734721002</v>
       </c>
       <c r="Y49">
         <f t="shared" si="2"/>
@@ -44637,11 +44637,11 @@
       </c>
       <c r="U50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12921506921726653</v>
+        <v>0.15946222923140629</v>
       </c>
       <c r="V50">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1913928957083377</v>
+        <v>3.2216400557224776</v>
       </c>
       <c r="Y50">
         <f t="shared" si="2"/>
@@ -44720,11 +44720,11 @@
       </c>
       <c r="U51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18117517498442093</v>
+        <v>4.5958289423967361E-2</v>
       </c>
       <c r="V51">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5434862768172644</v>
+        <v>2.4082693912568107</v>
       </c>
       <c r="Y51">
         <f t="shared" si="2"/>
@@ -44803,11 +44803,11 @@
       </c>
       <c r="U52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1589364244986427</v>
+        <v>1.3050195426979917E-2</v>
       </c>
       <c r="V52">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6584496923044179</v>
+        <v>1.5125634632327551</v>
       </c>
       <c r="Y52">
         <f t="shared" si="2"/>
@@ -44886,11 +44886,11 @@
       </c>
       <c r="U53">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13527504619578815</v>
+        <v>3.520069123235148E-3</v>
       </c>
       <c r="V53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63527504619579123</v>
+        <v>0.50352006912323821</v>
       </c>
       <c r="Y53">
         <f t="shared" si="2"/>
@@ -44969,11 +44969,11 @@
       </c>
       <c r="U54">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0620575003069428E-2</v>
+        <v>0.15398590571319959</v>
       </c>
       <c r="V54">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55523842171725202</v>
+        <v>-0.45187309100712181</v>
       </c>
       <c r="Y54">
         <f t="shared" si="2"/>
@@ -45052,11 +45052,11 @@
       </c>
       <c r="U55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10658180967058682</v>
+        <v>4.2884829218775948E-2</v>
       </c>
       <c r="V55">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6778809466608986</v>
+        <v>-1.7415779271127094</v>
       </c>
       <c r="Y55">
         <f t="shared" si="2"/>
@@ -45135,11 +45135,11 @@
       </c>
       <c r="U56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19152416938041517</v>
+        <v>0.16724202109383612</v>
       </c>
       <c r="V56">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8084758306195892</v>
+        <v>-2.8327579789061685</v>
       </c>
       <c r="Y56">
         <f t="shared" si="2"/>
@@ -45218,11 +45218,11 @@
       </c>
       <c r="U57">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8534092141873189E-2</v>
+        <v>0.17907911749545455</v>
       </c>
       <c r="V57">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1270031515266394</v>
+        <v>-4.0364581261730574</v>
       </c>
       <c r="Y57">
         <f t="shared" si="2"/>
@@ -45301,11 +45301,11 @@
       </c>
       <c r="U58">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9058280325544823E-2</v>
+        <v>5.1947134638700557E-2</v>
       </c>
       <c r="V58">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3450827229541318</v>
+        <v>-5.342193868640976</v>
       </c>
       <c r="Y58">
         <f t="shared" si="2"/>
@@ -45384,11 +45384,11 @@
       </c>
       <c r="U59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16048231315192085</v>
+        <v>0.1615567373724183</v>
       </c>
       <c r="V59">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.3395176868480831</v>
+        <v>-6.3384432626275853</v>
       </c>
       <c r="Y59">
         <f t="shared" si="2"/>
@@ -45467,11 +45467,11 @@
       </c>
       <c r="U60">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7433887814854256E-2</v>
+        <v>0.17284604467720621</v>
       </c>
       <c r="V60">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.4420793799909211</v>
+        <v>-7.3266672231285686</v>
       </c>
       <c r="Y60">
         <f t="shared" si="2"/>
@@ -45550,11 +45550,11 @@
       </c>
       <c r="U61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1250861323154879</v>
+        <v>3.1790162635824772E-2</v>
       </c>
       <c r="V61">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.2372249695173601</v>
+        <v>-8.3305209391970241</v>
       </c>
       <c r="Y61">
         <f t="shared" si="2"/>
@@ -45633,11 +45633,11 @@
       </c>
       <c r="U62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12181800858979888</v>
+        <v>9.2160906204834803E-2</v>
       </c>
       <c r="V62">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.9403598179012729</v>
+        <v>-8.9700169202862359</v>
       </c>
       <c r="Y62">
         <f t="shared" si="2"/>
@@ -45716,11 +45716,11 @@
       </c>
       <c r="U63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12110902456179118</v>
+        <v>7.3421760475523956E-2</v>
       </c>
       <c r="V63">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.4567393209395672</v>
+        <v>-9.5044265850258345</v>
       </c>
       <c r="Y63">
         <f t="shared" si="2"/>
@@ -45799,11 +45799,11 @@
       </c>
       <c r="U64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1502363688249565</v>
+        <v>1.5463696663465943E-2</v>
       </c>
       <c r="V64">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7434179022605001</v>
+        <v>-9.8781905744219909</v>
       </c>
       <c r="Y64">
         <f t="shared" si="2"/>
@@ -45882,11 +45882,11 @@
       </c>
       <c r="U65">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5021464093257412E-3</v>
+        <v>9.5817465866391019E-2</v>
       </c>
       <c r="V65">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.990497853590675</v>
+        <v>-9.9041825341336089</v>
       </c>
       <c r="Y65">
         <f t="shared" si="2"/>
@@ -45965,11 +45965,11 @@
       </c>
       <c r="U66">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1333403936295827E-2</v>
+        <v>6.7036427942615509E-2</v>
       </c>
       <c r="V66">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7001473800871807</v>
+        <v>-9.6944443560808597</v>
       </c>
       <c r="Y66">
         <f t="shared" si="2"/>
@@ -46048,11 +46048,11 @@
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U130" ca="1" si="10">$W$2*RAND()</f>
-        <v>7.1373298109084812E-2</v>
+        <v>9.2901372279970088E-3</v>
       </c>
       <c r="V67">
         <f t="shared" ref="V67:V130" ca="1" si="11">T67+U67</f>
-        <v>-8.9908045283819842</v>
+        <v>-9.0528876892630716</v>
       </c>
       <c r="Y67">
         <f t="shared" ref="Y67:Y130" si="12">B67*$AC$2</f>
@@ -46131,11 +46131,11 @@
       </c>
       <c r="U68">
         <f t="shared" ca="1" si="10"/>
-        <v>9.9365243722160379E-4</v>
+        <v>0.17767495706836817</v>
       </c>
       <c r="V68">
         <f t="shared" ca="1" si="11"/>
-        <v>-7.9487538158686135</v>
+        <v>-7.7720725112374671</v>
       </c>
       <c r="Y68">
         <f t="shared" si="12"/>
@@ -46214,11 +46214,11 @@
       </c>
       <c r="U69">
         <f t="shared" ca="1" si="10"/>
-        <v>3.7040024706110454E-3</v>
+        <v>0.1969506966976603</v>
       </c>
       <c r="V69">
         <f t="shared" ca="1" si="11"/>
-        <v>-6.4962959975293844</v>
+        <v>-6.3030493033023349</v>
       </c>
       <c r="Y69">
         <f t="shared" si="12"/>
@@ -46297,11 +46297,11 @@
       </c>
       <c r="U70">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7230655570364659E-2</v>
+        <v>4.417249510439674E-2</v>
       </c>
       <c r="V70">
         <f t="shared" ca="1" si="11"/>
-        <v>-4.7445026601472824</v>
+        <v>-4.7675608206132498</v>
       </c>
       <c r="Y70">
         <f t="shared" si="12"/>
@@ -46380,11 +46380,11 @@
       </c>
       <c r="U71">
         <f t="shared" ca="1" si="10"/>
-        <v>8.8625596288508298E-3</v>
+        <v>0.12721520863824554</v>
       </c>
       <c r="V71">
         <f t="shared" ca="1" si="11"/>
-        <v>-2.9911374403711415</v>
+        <v>-2.872784791361747</v>
       </c>
       <c r="Y71">
         <f t="shared" si="12"/>
@@ -46463,11 +46463,11 @@
       </c>
       <c r="U72">
         <f t="shared" ca="1" si="10"/>
-        <v>0.12011603228604394</v>
+        <v>0.16079848400948921</v>
       </c>
       <c r="V72">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.06815065199631</v>
+        <v>-1.0274682002728648</v>
       </c>
       <c r="Y72">
         <f t="shared" si="12"/>
@@ -46546,11 +46546,11 @@
       </c>
       <c r="U73">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11121058488239451</v>
+        <v>0.10950100801234933</v>
       </c>
       <c r="V73">
         <f t="shared" ca="1" si="11"/>
-        <v>0.61121058488239011</v>
+        <v>0.60950100801234486</v>
       </c>
       <c r="Y73">
         <f t="shared" si="12"/>
@@ -46629,11 +46629,11 @@
       </c>
       <c r="U74">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1874158476920675E-3</v>
+        <v>0.12112077010159493</v>
       </c>
       <c r="V74">
         <f t="shared" ca="1" si="11"/>
-        <v>1.9549348841535292</v>
+        <v>2.0708682384074319</v>
       </c>
       <c r="Y74">
         <f t="shared" si="12"/>
@@ -46712,11 +46712,11 @@
       </c>
       <c r="U75">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10394035952351277</v>
+        <v>2.648778654631272E-2</v>
       </c>
       <c r="V75">
         <f t="shared" ca="1" si="11"/>
-        <v>3.1661181860145824</v>
+        <v>3.0886656130373824</v>
       </c>
       <c r="Y75">
         <f t="shared" si="12"/>
@@ -46795,11 +46795,11 @@
       </c>
       <c r="U76">
         <f t="shared" ca="1" si="10"/>
-        <v>2.6069079943515929E-4</v>
+        <v>0.11269663964963168</v>
       </c>
       <c r="V76">
         <f t="shared" ca="1" si="11"/>
-        <v>3.7617414748229141</v>
+        <v>3.8741774236731104</v>
       </c>
       <c r="Y76">
         <f t="shared" si="12"/>
@@ -46878,11 +46878,11 @@
       </c>
       <c r="U77">
         <f t="shared" ca="1" si="10"/>
-        <v>7.2167936285767439E-2</v>
+        <v>6.4732110324192779E-2</v>
       </c>
       <c r="V77">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0721679362857675</v>
+        <v>4.0647321103241927</v>
       </c>
       <c r="Y77">
         <f t="shared" si="12"/>
@@ -46961,11 +46961,11 @@
       </c>
       <c r="U78">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18725703805996802</v>
+        <v>1.434932085404126E-2</v>
       </c>
       <c r="V78">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0809113091454252</v>
+        <v>3.9080035919394982</v>
       </c>
       <c r="Y78">
         <f t="shared" si="12"/>
@@ -47044,11 +47044,11 @@
       </c>
       <c r="U79">
         <f t="shared" ca="1" si="10"/>
-        <v>4.1957714677708528E-2</v>
+        <v>0.13691986751214674</v>
       </c>
       <c r="V79">
         <f t="shared" ca="1" si="11"/>
-        <v>3.6198060601790671</v>
+        <v>3.7147682130135053</v>
       </c>
       <c r="Y79">
         <f t="shared" si="12"/>
@@ -47127,11 +47127,11 @@
       </c>
       <c r="U80">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16373655414576413</v>
+        <v>0.1624947058763935</v>
       </c>
       <c r="V80">
         <f t="shared" ca="1" si="11"/>
-        <v>3.2259143806368353</v>
+        <v>3.2246725323674648</v>
       </c>
       <c r="Y80">
         <f t="shared" si="12"/>
@@ -47210,11 +47210,11 @@
       </c>
       <c r="U81">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19100676743032385</v>
+        <v>6.358998243869729E-2</v>
       </c>
       <c r="V81">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5533178692631675</v>
+        <v>2.4259010842715409</v>
       </c>
       <c r="Y81">
         <f t="shared" si="12"/>
@@ -47293,11 +47293,11 @@
       </c>
       <c r="U82">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11125839262927112</v>
+        <v>1.2858917768553435E-2</v>
       </c>
       <c r="V82">
         <f t="shared" ca="1" si="11"/>
-        <v>1.6107716604350464</v>
+        <v>1.5123721855743286</v>
       </c>
       <c r="Y82">
         <f t="shared" si="12"/>
@@ -47376,11 +47376,11 @@
       </c>
       <c r="U83">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1092026762687968E-2</v>
+        <v>0.16392215844614702</v>
       </c>
       <c r="V83">
         <f t="shared" ca="1" si="11"/>
-        <v>0.51109202676269105</v>
+        <v>0.6639221584461501</v>
       </c>
       <c r="Y83">
         <f t="shared" si="12"/>
@@ -47459,11 +47459,11 @@
       </c>
       <c r="U84">
         <f t="shared" ca="1" si="10"/>
-        <v>1.5790531290127485E-2</v>
+        <v>1.1648097118261558E-2</v>
       </c>
       <c r="V84">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.59006846543018321</v>
+        <v>-0.5942108996020492</v>
       </c>
       <c r="Y84">
         <f t="shared" si="12"/>
@@ -47542,11 +47542,11 @@
       </c>
       <c r="U85">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2433447488488854E-2</v>
+        <v>8.0684182865935108E-2</v>
       </c>
       <c r="V85">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.7020293088430074</v>
+        <v>-1.7037785734655613</v>
       </c>
       <c r="Y85">
         <f t="shared" si="12"/>
@@ -47625,11 +47625,11 @@
       </c>
       <c r="U86">
         <f t="shared" ca="1" si="10"/>
-        <v>0.13721182723524494</v>
+        <v>0.17512523928713716</v>
       </c>
       <c r="V86">
         <f t="shared" ca="1" si="11"/>
-        <v>-2.862800390069514</v>
+        <v>-2.8248869780176218</v>
       </c>
       <c r="Y86">
         <f t="shared" si="12"/>
@@ -47708,11 +47708,11 @@
       </c>
       <c r="U87">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15095435060378512</v>
+        <v>9.029895395870402E-2</v>
       </c>
       <c r="V87">
         <f t="shared" ca="1" si="11"/>
-        <v>-4.0645828930647276</v>
+        <v>-4.1252382897098085</v>
       </c>
       <c r="Y87">
         <f t="shared" si="12"/>
@@ -47791,11 +47791,11 @@
       </c>
       <c r="U88">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19274722557004409</v>
+        <v>7.9356140355141921E-2</v>
       </c>
       <c r="V88">
         <f t="shared" ca="1" si="11"/>
-        <v>-5.2013937777096322</v>
+        <v>-5.3147848629245349</v>
       </c>
       <c r="Y88">
         <f t="shared" si="12"/>
@@ -47874,11 +47874,11 @@
       </c>
       <c r="U89">
         <f t="shared" ca="1" si="10"/>
-        <v>2.5717040430804694E-2</v>
+        <v>0.10393054022820299</v>
       </c>
       <c r="V89">
         <f t="shared" ca="1" si="11"/>
-        <v>-6.4742829595691882</v>
+        <v>-6.3960694597717902</v>
       </c>
       <c r="Y89">
         <f t="shared" si="12"/>
@@ -47957,11 +47957,11 @@
       </c>
       <c r="U90">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10863146521363004</v>
+        <v>0.15992638677034751</v>
       </c>
       <c r="V90">
         <f t="shared" ca="1" si="11"/>
-        <v>-7.3908818025921521</v>
+        <v>-7.3395868810354346</v>
       </c>
       <c r="Y90">
         <f t="shared" si="12"/>
@@ -48040,11 +48040,11 @@
       </c>
       <c r="U91">
         <f t="shared" ca="1" si="10"/>
-        <v>3.9210023894921786E-2</v>
+        <v>8.8144884580913185E-2</v>
       </c>
       <c r="V91">
         <f t="shared" ca="1" si="11"/>
-        <v>-8.3231089310618813</v>
+        <v>-8.2741740703758904</v>
       </c>
       <c r="Y91">
         <f t="shared" si="12"/>
@@ -48123,11 +48123,11 @@
       </c>
       <c r="U92">
         <f t="shared" ca="1" si="10"/>
-        <v>9.8224487240577821E-2</v>
+        <v>3.4859189539509151E-2</v>
       </c>
       <c r="V92">
         <f t="shared" ca="1" si="11"/>
-        <v>-8.9639533392504926</v>
+        <v>-9.0273186369515628</v>
       </c>
       <c r="Y92">
         <f t="shared" si="12"/>
@@ -48206,11 +48206,11 @@
       </c>
       <c r="U93">
         <f t="shared" ca="1" si="10"/>
-        <v>5.6695841581424003E-2</v>
+        <v>0.10007157875577966</v>
       </c>
       <c r="V93">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.5211525039199341</v>
+        <v>-9.4777767667455795</v>
       </c>
       <c r="Y93">
         <f t="shared" si="12"/>
@@ -48289,11 +48289,11 @@
       </c>
       <c r="U94">
         <f t="shared" ca="1" si="10"/>
-        <v>3.8375597963649893E-2</v>
+        <v>0.12182158191754672</v>
       </c>
       <c r="V94">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.8552786731218056</v>
+        <v>-9.7718326891679101</v>
       </c>
       <c r="Y94">
         <f t="shared" si="12"/>
@@ -48372,11 +48372,11 @@
       </c>
       <c r="U95">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15115002733146737</v>
+        <v>6.5195322766556915E-2</v>
       </c>
       <c r="V95">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.8488499726685319</v>
+        <v>-9.9348046772334424</v>
       </c>
       <c r="Y95">
         <f t="shared" si="12"/>
@@ -48454,11 +48454,11 @@
       </c>
       <c r="U96">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10214388186350674</v>
+        <v>5.7696186228022597E-2</v>
       </c>
       <c r="V96">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.6593369021599695</v>
+        <v>-9.7037845977954529</v>
       </c>
       <c r="Y96">
         <f t="shared" si="12"/>
@@ -48536,11 +48536,11 @@
       </c>
       <c r="U97">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19261252386261318</v>
+        <v>9.3407080545380564E-2</v>
       </c>
       <c r="V97">
         <f t="shared" ca="1" si="11"/>
-        <v>-8.8695653026284571</v>
+        <v>-8.9687707459456885</v>
       </c>
       <c r="Y97">
         <f t="shared" si="12"/>
@@ -48618,11 +48618,11 @@
       </c>
       <c r="U98">
         <f t="shared" ca="1" si="10"/>
-        <v>0.17667463644859038</v>
+        <v>1.5998880780233704E-2</v>
       </c>
       <c r="V98">
         <f t="shared" ca="1" si="11"/>
-        <v>-7.7730728318572453</v>
+        <v>-7.933748587525602</v>
       </c>
       <c r="Y98">
         <f t="shared" si="12"/>
@@ -48700,11 +48700,11 @@
       </c>
       <c r="U99">
         <f t="shared" ca="1" si="10"/>
-        <v>9.3546113623057897E-2</v>
+        <v>4.5815764003340311E-3</v>
       </c>
       <c r="V99">
         <f t="shared" ca="1" si="11"/>
-        <v>-6.406453886376938</v>
+        <v>-6.4954184235996619</v>
       </c>
       <c r="Y99">
         <f t="shared" si="12"/>
@@ -48782,11 +48782,11 @@
       </c>
       <c r="U100">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16771779343347082</v>
+        <v>5.0770418582857024E-2</v>
       </c>
       <c r="V100">
         <f t="shared" ca="1" si="11"/>
-        <v>-4.6440155222841764</v>
+        <v>-4.7609628971347897</v>
       </c>
       <c r="Y100">
         <f t="shared" si="12"/>
@@ -48864,11 +48864,11 @@
       </c>
       <c r="U101">
         <f t="shared" ca="1" si="10"/>
-        <v>5.9829566682150871E-2</v>
+        <v>0.11926092863072112</v>
       </c>
       <c r="V101">
         <f t="shared" ca="1" si="11"/>
-        <v>-2.9401704333178418</v>
+        <v>-2.8807390713692715</v>
       </c>
       <c r="Y101">
         <f t="shared" si="12"/>
@@ -48946,11 +48946,11 @@
       </c>
       <c r="U102">
         <f t="shared" ca="1" si="10"/>
-        <v>9.0000609716021862E-2</v>
+        <v>4.2981889852238546E-2</v>
       </c>
       <c r="V102">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.098266074566332</v>
+        <v>-1.1452847944301154</v>
       </c>
       <c r="Y102">
         <f t="shared" si="12"/>
@@ -49028,11 +49028,11 @@
       </c>
       <c r="U103">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18519768668432815</v>
+        <v>0.16274002270033011</v>
       </c>
       <c r="V103">
         <f t="shared" ca="1" si="11"/>
-        <v>0.68519768668432368</v>
+        <v>0.66274002270032573</v>
       </c>
       <c r="Y103">
         <f t="shared" si="12"/>
@@ -49110,11 +49110,11 @@
       </c>
       <c r="U104">
         <f t="shared" ca="1" si="10"/>
-        <v>0.13429680875022007</v>
+        <v>2.4170693916714114E-2</v>
       </c>
       <c r="V104">
         <f t="shared" ca="1" si="11"/>
-        <v>2.0840442770560572</v>
+        <v>1.9739181622225512</v>
       </c>
       <c r="Y104">
         <f t="shared" si="12"/>
@@ -49192,11 +49192,11 @@
       </c>
       <c r="U105">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18015226930803818</v>
+        <v>0.14637524163603086</v>
       </c>
       <c r="V105">
         <f t="shared" ca="1" si="11"/>
-        <v>3.2423300957991077</v>
+        <v>3.2085530681271002</v>
       </c>
       <c r="Y105">
         <f t="shared" si="12"/>
@@ -49274,11 +49274,11 @@
       </c>
       <c r="U106">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11248444141392522</v>
+        <v>0.15220355071047173</v>
       </c>
       <c r="V106">
         <f t="shared" ca="1" si="11"/>
-        <v>3.873965225437404</v>
+        <v>3.9136843347339503</v>
       </c>
       <c r="Y106">
         <f t="shared" si="12"/>
@@ -49356,11 +49356,11 @@
       </c>
       <c r="U107">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8728973546286467E-2</v>
+        <v>4.102175222763671E-2</v>
       </c>
       <c r="V107">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0187289735462866</v>
+        <v>4.0410217522276364</v>
       </c>
       <c r="Y107">
         <f t="shared" si="12"/>
@@ -49438,11 +49438,11 @@
       </c>
       <c r="U108">
         <f t="shared" ca="1" si="10"/>
-        <v>0.133875303742751</v>
+        <v>6.6070610755577075E-2</v>
       </c>
       <c r="V108">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0275295748282076</v>
+        <v>3.959724881841034</v>
       </c>
       <c r="Y108">
         <f t="shared" si="12"/>
@@ -49520,11 +49520,11 @@
       </c>
       <c r="U109">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11666396997181452</v>
+        <v>7.2291910908136012E-2</v>
       </c>
       <c r="V109">
         <f t="shared" ca="1" si="11"/>
-        <v>3.6945123154731729</v>
+        <v>3.6501402564094945</v>
       </c>
       <c r="Y109">
         <f t="shared" si="12"/>
@@ -49602,11 +49602,11 @@
       </c>
       <c r="U110">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15986111279451889</v>
+        <v>9.6361644626571208E-2</v>
       </c>
       <c r="V110">
         <f t="shared" ca="1" si="11"/>
-        <v>3.2220389392855902</v>
+        <v>3.1585394711176424</v>
       </c>
       <c r="Y110">
         <f t="shared" si="12"/>
@@ -49684,11 +49684,11 @@
       </c>
       <c r="U111">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18865536297644875</v>
+        <v>0.15374017301731505</v>
       </c>
       <c r="V111">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5509664648092922</v>
+        <v>2.5160512748501587</v>
       </c>
       <c r="Y111">
         <f t="shared" si="12"/>
@@ -49766,11 +49766,11 @@
       </c>
       <c r="U112">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15441655906962592</v>
+        <v>5.1909105643950085E-2</v>
       </c>
       <c r="V112">
         <f t="shared" ca="1" si="11"/>
-        <v>1.6539298268754012</v>
+        <v>1.5514223734497252</v>
       </c>
       <c r="Y112">
         <f t="shared" si="12"/>
@@ -49848,11 +49848,11 @@
       </c>
       <c r="U113">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16489811094517312</v>
+        <v>0.19062155033308475</v>
       </c>
       <c r="V113">
         <f t="shared" ca="1" si="11"/>
-        <v>0.66489811094517626</v>
+        <v>0.69062155033308792</v>
       </c>
       <c r="Y113">
         <f t="shared" si="12"/>
@@ -49930,11 +49930,11 @@
       </c>
       <c r="U114">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15078381624548381</v>
+        <v>0.13500496531739462</v>
       </c>
       <c r="V114">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.45507518047482692</v>
+        <v>-0.47085403140291615</v>
       </c>
       <c r="Y114">
         <f t="shared" si="12"/>
@@ -50012,11 +50012,11 @@
       </c>
       <c r="U115">
         <f t="shared" ca="1" si="10"/>
-        <v>0.17155794197261512</v>
+        <v>3.8591066874738678E-2</v>
       </c>
       <c r="V115">
         <f t="shared" ca="1" si="11"/>
-        <v>-1.6129048143588811</v>
+        <v>-1.7458716894567576</v>
       </c>
       <c r="Y115">
         <f t="shared" si="12"/>
@@ -50094,11 +50094,11 @@
       </c>
       <c r="U116">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15949129030612785</v>
+        <v>0.19940067852930149</v>
       </c>
       <c r="V116">
         <f t="shared" ca="1" si="11"/>
-        <v>-2.8405209269986313</v>
+        <v>-2.8006115387754575</v>
       </c>
       <c r="Y116">
         <f t="shared" si="12"/>
@@ -50176,11 +50176,11 @@
       </c>
       <c r="U117">
         <f t="shared" ca="1" si="10"/>
-        <v>2.9882500369972156E-2</v>
+        <v>2.5034320692218184E-2</v>
       </c>
       <c r="V117">
         <f t="shared" ca="1" si="11"/>
-        <v>-4.1856547432985405</v>
+        <v>-4.190502922976294</v>
       </c>
       <c r="Y117">
         <f t="shared" si="12"/>
@@ -50258,11 +50258,11 @@
       </c>
       <c r="U118">
         <f t="shared" ca="1" si="10"/>
-        <v>0.12585680854854517</v>
+        <v>9.5102675031831327E-2</v>
       </c>
       <c r="V118">
         <f t="shared" ca="1" si="11"/>
-        <v>-5.2682841947311312</v>
+        <v>-5.2990383282478453</v>
       </c>
       <c r="Y118">
         <f t="shared" si="12"/>
@@ -50340,11 +50340,11 @@
       </c>
       <c r="U119">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11594256982106461</v>
+        <v>0.16163952326477604</v>
       </c>
       <c r="V119">
         <f t="shared" ca="1" si="11"/>
-        <v>-6.3840574301789283</v>
+        <v>-6.3383604767352164</v>
       </c>
       <c r="Y119">
         <f t="shared" si="12"/>
@@ -50422,11 +50422,11 @@
       </c>
       <c r="U120">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11023401498178775</v>
+        <v>6.0400297690877298E-3</v>
       </c>
       <c r="V120">
         <f t="shared" ca="1" si="11"/>
-        <v>-7.3892792528239948</v>
+        <v>-7.4934732380366942</v>
       </c>
       <c r="Y120">
         <f t="shared" si="12"/>
@@ -50504,11 +50504,11 @@
       </c>
       <c r="U121">
         <f t="shared" ca="1" si="10"/>
-        <v>6.29816834666556E-2</v>
+        <v>4.6715372446960161E-2</v>
       </c>
       <c r="V121">
         <f t="shared" ca="1" si="11"/>
-        <v>-8.2993372714901472</v>
+        <v>-8.3156035825098442</v>
       </c>
       <c r="Y121">
         <f t="shared" si="12"/>
@@ -50586,11 +50586,11 @@
       </c>
       <c r="U122">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15659863722175446</v>
+        <v>9.4861402955552662E-2</v>
       </c>
       <c r="V122">
         <f t="shared" ca="1" si="11"/>
-        <v>-8.9055791892693161</v>
+        <v>-8.9673164235355181</v>
       </c>
       <c r="Y122">
         <f t="shared" si="12"/>
@@ -50668,11 +50668,11 @@
       </c>
       <c r="U123">
         <f t="shared" ca="1" si="10"/>
-        <v>9.2725046672235092E-2</v>
+        <v>0.16945294774729511</v>
       </c>
       <c r="V123">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.485123298829123</v>
+        <v>-9.4083953977540631</v>
       </c>
       <c r="Y123">
         <f t="shared" si="12"/>
@@ -50750,11 +50750,11 @@
       </c>
       <c r="U124">
         <f t="shared" ca="1" si="10"/>
-        <v>0.17078056833968669</v>
+        <v>1.6707457580923801E-2</v>
       </c>
       <c r="V124">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.722873702745769</v>
+        <v>-9.8769468135045315</v>
       </c>
       <c r="Y124">
         <f t="shared" si="12"/>
@@ -50832,11 +50832,11 @@
       </c>
       <c r="U125">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18075956169082347</v>
+        <v>0.16954834663582194</v>
       </c>
       <c r="V125">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.8192404383091763</v>
+        <v>-9.8304516533641788</v>
       </c>
       <c r="Y125">
         <f t="shared" si="12"/>
@@ -50914,11 +50914,11 @@
       </c>
       <c r="U126">
         <f t="shared" ca="1" si="10"/>
-        <v>3.061365742515041E-2</v>
+        <v>0.11122225740773679</v>
       </c>
       <c r="V126">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.7308671265983264</v>
+        <v>-9.6502585266157386</v>
       </c>
       <c r="Y126">
         <f t="shared" si="12"/>
@@ -50996,11 +50996,11 @@
       </c>
       <c r="U127">
         <f t="shared" ca="1" si="10"/>
-        <v>2.1455175098596981E-2</v>
+        <v>2.1394737280609366E-2</v>
       </c>
       <c r="V127">
         <f t="shared" ca="1" si="11"/>
-        <v>-9.040722651392473</v>
+        <v>-9.0407830892104606</v>
       </c>
       <c r="Y127">
         <f t="shared" si="12"/>
@@ -51078,11 +51078,11 @@
       </c>
       <c r="U128">
         <f t="shared" ca="1" si="10"/>
-        <v>0.1626082131613874</v>
+        <v>0.14332572620698153</v>
       </c>
       <c r="V128">
         <f t="shared" ca="1" si="11"/>
-        <v>-7.7871392551444476</v>
+        <v>-7.8064217420988538</v>
       </c>
       <c r="Y128">
         <f t="shared" si="12"/>
@@ -51160,11 +51160,11 @@
       </c>
       <c r="U129">
         <f t="shared" ca="1" si="10"/>
-        <v>9.3049775106589211E-2</v>
+        <v>0.15183820309847118</v>
       </c>
       <c r="V129">
         <f t="shared" ca="1" si="11"/>
-        <v>-6.4069502248934063</v>
+        <v>-6.3481617969015245</v>
       </c>
       <c r="Y129">
         <f t="shared" si="12"/>
@@ -51242,11 +51242,11 @@
       </c>
       <c r="U130">
         <f t="shared" ca="1" si="10"/>
-        <v>6.3482624029217007E-3</v>
+        <v>0.17531372931647612</v>
       </c>
       <c r="V130">
         <f t="shared" ca="1" si="11"/>
-        <v>-4.8053850533147253</v>
+        <v>-4.6364195864011712</v>
       </c>
       <c r="Y130">
         <f t="shared" si="12"/>
@@ -51324,11 +51324,11 @@
       </c>
       <c r="U131">
         <f t="shared" ref="U131:U194" ca="1" si="16">$W$2*RAND()</f>
-        <v>0.1508761268275271</v>
+        <v>2.7597378685266728E-2</v>
       </c>
       <c r="V131">
         <f t="shared" ref="V131:V194" ca="1" si="17">T131+U131</f>
-        <v>-2.8491238731724655</v>
+        <v>-2.9724026213147257</v>
       </c>
       <c r="Y131">
         <f t="shared" ref="Y131:Y194" si="18">B131*$AC$2</f>
@@ -51406,11 +51406,11 @@
       </c>
       <c r="U132">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2032171075427809E-2</v>
+        <v>0.18358144231169093</v>
       </c>
       <c r="V132">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.1162345132069262</v>
+        <v>-1.0046852419706629</v>
       </c>
       <c r="Y132">
         <f t="shared" si="18"/>
@@ -51488,11 +51488,11 @@
       </c>
       <c r="U133">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3826325972511834E-2</v>
+        <v>0.11891483553599763</v>
       </c>
       <c r="V133">
         <f t="shared" ca="1" si="17"/>
-        <v>0.51382632597250744</v>
+        <v>0.61891483553599325</v>
       </c>
       <c r="Y133">
         <f t="shared" si="18"/>
@@ -51570,11 +51570,11 @@
       </c>
       <c r="U134">
         <f t="shared" ca="1" si="16"/>
-        <v>6.5435383246723752E-2</v>
+        <v>0.19485919297664664</v>
       </c>
       <c r="V134">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0151828515525607</v>
+        <v>2.1446066612824839</v>
       </c>
       <c r="Y134">
         <f t="shared" si="18"/>
@@ -51652,11 +51652,11 @@
       </c>
       <c r="U135">
         <f t="shared" ca="1" si="16"/>
-        <v>9.1690857852641708E-2</v>
+        <v>0.10149353399959066</v>
       </c>
       <c r="V135">
         <f t="shared" ca="1" si="17"/>
-        <v>3.1538686843437111</v>
+        <v>3.1636713604906603</v>
       </c>
       <c r="Y135">
         <f t="shared" si="18"/>
@@ -51734,11 +51734,11 @@
       </c>
       <c r="U136">
         <f t="shared" ca="1" si="16"/>
-        <v>0.16138634884630426</v>
+        <v>0.11229815728025611</v>
       </c>
       <c r="V136">
         <f t="shared" ca="1" si="17"/>
-        <v>3.9228671328697828</v>
+        <v>3.8737789413037347</v>
       </c>
       <c r="Y136">
         <f t="shared" si="18"/>
@@ -51816,11 +51816,11 @@
       </c>
       <c r="U137">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2002929224130272E-2</v>
+        <v>0.10232265552659632</v>
       </c>
       <c r="V137">
         <f t="shared" ca="1" si="17"/>
-        <v>4.0820029292241307</v>
+        <v>4.1023226555265966</v>
       </c>
       <c r="Y137">
         <f t="shared" si="18"/>
@@ -51898,11 +51898,11 @@
       </c>
       <c r="U138">
         <f t="shared" ca="1" si="16"/>
-        <v>2.9715976355075526E-2</v>
+        <v>7.6825987173343643E-2</v>
       </c>
       <c r="V138">
         <f t="shared" ca="1" si="17"/>
-        <v>3.9233702474405323</v>
+        <v>3.9704802582588004</v>
       </c>
       <c r="Y138">
         <f t="shared" si="18"/>
@@ -51980,11 +51980,11 @@
       </c>
       <c r="U139">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3932417189157334E-3</v>
+        <v>0.10481171929327877</v>
       </c>
       <c r="V139">
         <f t="shared" ca="1" si="17"/>
-        <v>3.5862415872202744</v>
+        <v>3.6826600647946375</v>
       </c>
       <c r="Y139">
         <f t="shared" si="18"/>
@@ -52062,11 +52062,11 @@
       </c>
       <c r="U140">
         <f t="shared" ca="1" si="16"/>
-        <v>6.974224707182855E-2</v>
+        <v>8.6757115019700612E-2</v>
       </c>
       <c r="V140">
         <f t="shared" ca="1" si="17"/>
-        <v>3.1319200735628998</v>
+        <v>3.1489349415107717</v>
       </c>
       <c r="Y140">
         <f t="shared" si="18"/>
@@ -52144,11 +52144,11 @@
       </c>
       <c r="U141">
         <f t="shared" ca="1" si="16"/>
-        <v>0.13663245356560499</v>
+        <v>0.17010497540922581</v>
       </c>
       <c r="V141">
         <f t="shared" ca="1" si="17"/>
-        <v>2.4989435553984487</v>
+        <v>2.5324160772420692</v>
       </c>
       <c r="Y141">
         <f t="shared" si="18"/>
@@ -52226,11 +52226,11 @@
       </c>
       <c r="U142">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9601583274743828E-2</v>
+        <v>0.16621508586152556</v>
       </c>
       <c r="V142">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5791148510805191</v>
+        <v>1.6657283536673009</v>
       </c>
       <c r="Y142">
         <f t="shared" si="18"/>
@@ -52308,11 +52308,11 @@
       </c>
       <c r="U143">
         <f t="shared" ca="1" si="16"/>
-        <v>5.463566827803068E-2</v>
+        <v>9.9378573554458061E-2</v>
       </c>
       <c r="V143">
         <f t="shared" ca="1" si="17"/>
-        <v>0.55463566827803379</v>
+        <v>0.59937857355446122</v>
       </c>
       <c r="Y143">
         <f t="shared" si="18"/>
@@ -52390,11 +52390,11 @@
       </c>
       <c r="U144">
         <f t="shared" ca="1" si="16"/>
-        <v>0.10218350998045263</v>
+        <v>8.7786354296041536E-2</v>
       </c>
       <c r="V144">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.50367548673985807</v>
+        <v>-0.5180726424242692</v>
       </c>
       <c r="Y144">
         <f t="shared" si="18"/>
@@ -52472,11 +52472,11 @@
       </c>
       <c r="U145">
         <f t="shared" ca="1" si="16"/>
-        <v>2.081245198138695E-2</v>
+        <v>0.18375702233832597</v>
       </c>
       <c r="V145">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.7636503043501093</v>
+        <v>-1.6007057339931703</v>
       </c>
       <c r="Y145">
         <f t="shared" si="18"/>
@@ -52554,11 +52554,11 @@
       </c>
       <c r="U146">
         <f t="shared" ca="1" si="16"/>
-        <v>5.9060041490395015E-3</v>
+        <v>2.5492333389372249E-2</v>
       </c>
       <c r="V146">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.9941062131557197</v>
+        <v>-2.9745198839153866</v>
       </c>
       <c r="Y146">
         <f t="shared" si="18"/>
@@ -52636,11 +52636,11 @@
       </c>
       <c r="U147">
         <f t="shared" ca="1" si="16"/>
-        <v>0.16031978994685558</v>
+        <v>3.5466124883686993E-2</v>
       </c>
       <c r="V147">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.0552174537216565</v>
+        <v>-4.1800711187848254</v>
       </c>
       <c r="Y147">
         <f t="shared" si="18"/>
@@ -52718,11 +52718,11 @@
       </c>
       <c r="U148">
         <f t="shared" ca="1" si="16"/>
-        <v>3.0124382800905014E-2</v>
+        <v>2.0500034797994782E-2</v>
       </c>
       <c r="V148">
         <f t="shared" ca="1" si="17"/>
-        <v>-5.3640166204787718</v>
+        <v>-5.3736409684816815</v>
       </c>
       <c r="Y148">
         <f t="shared" si="18"/>
@@ -52800,11 +52800,11 @@
       </c>
       <c r="U149">
         <f t="shared" ca="1" si="16"/>
-        <v>7.9951828615501944E-2</v>
+        <v>2.3064922779355568E-2</v>
       </c>
       <c r="V149">
         <f t="shared" ca="1" si="17"/>
-        <v>-6.420048171384491</v>
+        <v>-6.4769350772206371</v>
       </c>
       <c r="Y149">
         <f t="shared" si="18"/>
@@ -52882,11 +52882,11 @@
       </c>
       <c r="U150">
         <f t="shared" ca="1" si="16"/>
-        <v>0.16258912214849899</v>
+        <v>2.2708015638681835E-2</v>
       </c>
       <c r="V150">
         <f t="shared" ca="1" si="17"/>
-        <v>-7.3369241456572833</v>
+        <v>-7.4768052521671002</v>
       </c>
       <c r="Y150">
         <f t="shared" si="18"/>
@@ -52964,11 +52964,11 @@
       </c>
       <c r="U151">
         <f t="shared" ca="1" si="16"/>
-        <v>0.18540544166022099</v>
+        <v>0.17141076543846812</v>
       </c>
       <c r="V151">
         <f t="shared" ca="1" si="17"/>
-        <v>-8.1769135132965829</v>
+        <v>-8.1909081895183355</v>
       </c>
       <c r="Y151">
         <f t="shared" si="18"/>
@@ -53046,11 +53046,11 @@
       </c>
       <c r="U152">
         <f t="shared" ca="1" si="16"/>
-        <v>0.14377036983445099</v>
+        <v>0.12363911942855801</v>
       </c>
       <c r="V152">
         <f t="shared" ca="1" si="17"/>
-        <v>-8.9184074566566203</v>
+        <v>-8.9385387070625129</v>
       </c>
       <c r="Y152">
         <f t="shared" si="18"/>
@@ -53128,11 +53128,11 @@
       </c>
       <c r="U153">
         <f t="shared" ca="1" si="16"/>
-        <v>0.14098423530822524</v>
+        <v>0.14782355263270119</v>
       </c>
       <c r="V153">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.4368641101931328</v>
+        <v>-9.4300247928686574</v>
       </c>
       <c r="Y153">
         <f t="shared" si="18"/>
@@ -53210,11 +53210,11 @@
       </c>
       <c r="U154">
         <f t="shared" ca="1" si="16"/>
-        <v>8.7221203070229028E-2</v>
+        <v>2.9248104414448584E-3</v>
       </c>
       <c r="V154">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.8064330680152274</v>
+        <v>-9.8907294606440104</v>
       </c>
       <c r="Y154">
         <f t="shared" si="18"/>
@@ -53292,11 +53292,11 @@
       </c>
       <c r="U155">
         <f t="shared" ca="1" si="16"/>
-        <v>3.933631051095654E-2</v>
+        <v>2.4189635463356042E-2</v>
       </c>
       <c r="V155">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.9606636894890439</v>
+        <v>-9.9758103645366436</v>
       </c>
       <c r="Y155">
         <f t="shared" si="18"/>
@@ -53374,11 +53374,11 @@
       </c>
       <c r="U156">
         <f t="shared" ca="1" si="16"/>
-        <v>0.19270457732655022</v>
+        <v>8.8020958397576565E-2</v>
       </c>
       <c r="V156">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.568776206696926</v>
+        <v>-9.6734598256258995</v>
       </c>
       <c r="Y156">
         <f t="shared" si="18"/>
@@ -53456,11 +53456,11 @@
       </c>
       <c r="U157">
         <f t="shared" ca="1" si="16"/>
-        <v>1.8770751667069985E-2</v>
+        <v>8.4232391680595514E-2</v>
       </c>
       <c r="V157">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.0434070748239996</v>
+        <v>-8.9779454348104739</v>
       </c>
       <c r="Y157">
         <f t="shared" si="18"/>
@@ -53538,11 +53538,11 @@
       </c>
       <c r="U158">
         <f t="shared" ca="1" si="16"/>
-        <v>5.9633403493397436E-2</v>
+        <v>0.10727097942784213</v>
       </c>
       <c r="V158">
         <f t="shared" ca="1" si="17"/>
-        <v>-7.8901140648124377</v>
+        <v>-7.8424764888779936</v>
       </c>
       <c r="Y158">
         <f t="shared" si="18"/>
@@ -53620,11 +53620,11 @@
       </c>
       <c r="U159">
         <f t="shared" ca="1" si="16"/>
-        <v>0.11585561163517669</v>
+        <v>0.11259184255161603</v>
       </c>
       <c r="V159">
         <f t="shared" ca="1" si="17"/>
-        <v>-6.3841443883648186</v>
+        <v>-6.3874081574483794</v>
       </c>
       <c r="Y159">
         <f t="shared" si="18"/>
@@ -53702,11 +53702,11 @@
       </c>
       <c r="U160">
         <f t="shared" ca="1" si="16"/>
-        <v>0.13190604941667688</v>
+        <v>0.16102439722351403</v>
       </c>
       <c r="V160">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.6798272663009701</v>
+        <v>-4.650708918494133</v>
       </c>
       <c r="Y160">
         <f t="shared" si="18"/>
@@ -53784,11 +53784,11 @@
       </c>
       <c r="U161">
         <f t="shared" ca="1" si="16"/>
-        <v>6.6011105569187573E-2</v>
+        <v>8.217094588366369E-3</v>
       </c>
       <c r="V161">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.9339888944308048</v>
+        <v>-2.9917829054116263</v>
       </c>
       <c r="Y161">
         <f t="shared" si="18"/>
@@ -53866,11 +53866,11 @@
       </c>
       <c r="U162">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5201814804011511E-2</v>
+        <v>0.12569923073859168</v>
       </c>
       <c r="V162">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.1030648694783425</v>
+        <v>-1.0625674535437621</v>
       </c>
       <c r="Y162">
         <f t="shared" si="18"/>
@@ -53948,11 +53948,11 @@
       </c>
       <c r="U163">
         <f t="shared" ca="1" si="16"/>
-        <v>0.10462603620546052</v>
+        <v>0.12842314665655913</v>
       </c>
       <c r="V163">
         <f t="shared" ca="1" si="17"/>
-        <v>0.60462603620545607</v>
+        <v>0.62842314665655463</v>
       </c>
       <c r="Y163">
         <f t="shared" si="18"/>
@@ -54030,11 +54030,11 @@
       </c>
       <c r="U164">
         <f t="shared" ca="1" si="16"/>
-        <v>9.8772401351053862E-2</v>
+        <v>2.5033033274942575E-2</v>
       </c>
       <c r="V164">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0485198696568911</v>
+        <v>1.9747805015807798</v>
       </c>
       <c r="Y164">
         <f t="shared" si="18"/>
@@ -54112,11 +54112,11 @@
       </c>
       <c r="U165">
         <f t="shared" ca="1" si="16"/>
-        <v>4.9888568324188753E-2</v>
+        <v>7.6233205488385816E-2</v>
       </c>
       <c r="V165">
         <f t="shared" ca="1" si="17"/>
-        <v>3.1120663948152583</v>
+        <v>3.1384110319794551</v>
       </c>
       <c r="Y165">
         <f t="shared" si="18"/>
@@ -54194,11 +54194,11 @@
       </c>
       <c r="U166">
         <f t="shared" ca="1" si="16"/>
-        <v>0.18379836463478508</v>
+        <v>0.14478554027249457</v>
       </c>
       <c r="V166">
         <f t="shared" ca="1" si="17"/>
-        <v>3.9452791486582637</v>
+        <v>3.9062663242959732</v>
       </c>
       <c r="Y166">
         <f t="shared" si="18"/>
@@ -54276,11 +54276,11 @@
       </c>
       <c r="U167">
         <f t="shared" ca="1" si="16"/>
-        <v>2.4974479060811072E-2</v>
+        <v>0.16877214273039279</v>
       </c>
       <c r="V167">
         <f t="shared" ca="1" si="17"/>
-        <v>4.0249744790608109</v>
+        <v>4.1687721427303925</v>
       </c>
       <c r="Y167">
         <f t="shared" si="18"/>
@@ -54358,11 +54358,11 @@
       </c>
       <c r="U168">
         <f t="shared" ca="1" si="16"/>
-        <v>5.6172830431402088E-2</v>
+        <v>0.16643741682143048</v>
       </c>
       <c r="V168">
         <f t="shared" ca="1" si="17"/>
-        <v>3.9498271015168589</v>
+        <v>4.0600916879068878</v>
       </c>
       <c r="Y168">
         <f t="shared" si="18"/>
@@ -54440,11 +54440,11 @@
       </c>
       <c r="U169">
         <f t="shared" ca="1" si="16"/>
-        <v>8.2090213876793855E-2</v>
+        <v>3.2212710765429954E-2</v>
       </c>
       <c r="V169">
         <f t="shared" ca="1" si="17"/>
-        <v>3.6599385593781526</v>
+        <v>3.6100610562667885</v>
       </c>
       <c r="Y169">
         <f t="shared" si="18"/>
@@ -54522,11 +54522,11 @@
       </c>
       <c r="U170">
         <f t="shared" ca="1" si="16"/>
-        <v>0.18279185340270859</v>
+        <v>6.1037940811185701E-2</v>
       </c>
       <c r="V170">
         <f t="shared" ca="1" si="17"/>
-        <v>3.2449696798937797</v>
+        <v>3.1232157673022569</v>
       </c>
       <c r="Y170">
         <f t="shared" si="18"/>
@@ -54604,11 +54604,11 @@
       </c>
       <c r="U171">
         <f t="shared" ca="1" si="16"/>
-        <v>7.0760899684236864E-2</v>
+        <v>4.6008478934197239E-2</v>
       </c>
       <c r="V171">
         <f t="shared" ca="1" si="17"/>
-        <v>2.4330720015170804</v>
+        <v>2.4083195807670408</v>
       </c>
       <c r="Y171">
         <f t="shared" si="18"/>
@@ -54686,11 +54686,11 @@
       </c>
       <c r="U172">
         <f t="shared" ca="1" si="16"/>
-        <v>0.12550839319366305</v>
+        <v>2.1764983428617348E-2</v>
       </c>
       <c r="V172">
         <f t="shared" ca="1" si="17"/>
-        <v>1.6250216609994383</v>
+        <v>1.5212782512343925</v>
       </c>
       <c r="Y172">
         <f t="shared" si="18"/>
@@ -54768,11 +54768,11 @@
       </c>
       <c r="U173">
         <f t="shared" ca="1" si="16"/>
-        <v>9.6796958097111863E-2</v>
+        <v>0.17073351783416552</v>
       </c>
       <c r="V173">
         <f t="shared" ca="1" si="17"/>
-        <v>0.59679695809711497</v>
+        <v>0.67073351783416868</v>
       </c>
       <c r="Y173">
         <f t="shared" si="18"/>
@@ -54850,11 +54850,11 @@
       </c>
       <c r="U174">
         <f t="shared" ca="1" si="16"/>
-        <v>0.13469015845397353</v>
+        <v>2.9452576539921838E-2</v>
       </c>
       <c r="V174">
         <f t="shared" ca="1" si="17"/>
-        <v>-0.47116883826633721</v>
+        <v>-0.5764064201803889</v>
       </c>
       <c r="Y174">
         <f t="shared" si="18"/>
@@ -54932,11 +54932,11 @@
       </c>
       <c r="U175">
         <f t="shared" ca="1" si="16"/>
-        <v>0.15534665826970706</v>
+        <v>3.4123536579898972E-2</v>
       </c>
       <c r="V175">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.6291160980617891</v>
+        <v>-1.7503392197515972</v>
       </c>
       <c r="Y175">
         <f t="shared" si="18"/>
@@ -55014,11 +55014,11 @@
       </c>
       <c r="U176">
         <f t="shared" ca="1" si="16"/>
-        <v>7.2354517277673711E-2</v>
+        <v>5.6814228592434464E-4</v>
       </c>
       <c r="V176">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.9276577000270851</v>
+        <v>-2.9994440750188347</v>
       </c>
       <c r="Y176">
         <f t="shared" si="18"/>
@@ -55096,11 +55096,11 @@
       </c>
       <c r="U177">
         <f t="shared" ca="1" si="16"/>
-        <v>0.1076560057733683</v>
+        <v>2.8786035692177747E-2</v>
       </c>
       <c r="V177">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.1078812378951444</v>
+        <v>-4.1867512079763349</v>
       </c>
       <c r="Y177">
         <f t="shared" si="18"/>
@@ -55178,11 +55178,11 @@
       </c>
       <c r="U178">
         <f t="shared" ca="1" si="16"/>
-        <v>3.4191120929411949E-2</v>
+        <v>0.17897803651468691</v>
       </c>
       <c r="V178">
         <f t="shared" ca="1" si="17"/>
-        <v>-5.3599498823502643</v>
+        <v>-5.2151629667649892</v>
       </c>
       <c r="Y178">
         <f t="shared" si="18"/>
@@ -55260,11 +55260,11 @@
       </c>
       <c r="U179">
         <f t="shared" ca="1" si="16"/>
-        <v>6.4921046011486142E-2</v>
+        <v>5.8354910366575231E-2</v>
       </c>
       <c r="V179">
         <f t="shared" ca="1" si="17"/>
-        <v>-6.4350789539885067</v>
+        <v>-6.4416450896334174</v>
       </c>
       <c r="Y179">
         <f t="shared" si="18"/>
@@ -55342,11 +55342,11 @@
       </c>
       <c r="U180">
         <f t="shared" ca="1" si="16"/>
-        <v>1.9752556100780552E-2</v>
+        <v>8.967222814417386E-2</v>
       </c>
       <c r="V180">
         <f t="shared" ca="1" si="17"/>
-        <v>-7.4797607117050013</v>
+        <v>-7.4098410396616083</v>
       </c>
       <c r="Y180">
         <f t="shared" si="18"/>
@@ -55424,11 +55424,11 @@
       </c>
       <c r="U181">
         <f t="shared" ca="1" si="16"/>
-        <v>0.18716050643076168</v>
+        <v>7.3790920886762673E-2</v>
       </c>
       <c r="V181">
         <f t="shared" ca="1" si="17"/>
-        <v>-8.1751584485260427</v>
+        <v>-8.2885280340700405</v>
       </c>
       <c r="Y181">
         <f t="shared" si="18"/>
@@ -55506,11 +55506,11 @@
       </c>
       <c r="U182">
         <f t="shared" ca="1" si="16"/>
-        <v>5.9352222899061613E-2</v>
+        <v>0.13846224380450312</v>
       </c>
       <c r="V182">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.0028256035920098</v>
+        <v>-8.9237155826865688</v>
       </c>
       <c r="Y182">
         <f t="shared" si="18"/>
@@ -55588,11 +55588,11 @@
       </c>
       <c r="U183">
         <f t="shared" ca="1" si="16"/>
-        <v>0.15366753635386196</v>
+        <v>0.17816979711181563</v>
       </c>
       <c r="V183">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.4241808091474972</v>
+        <v>-9.3996785483895433</v>
       </c>
       <c r="Y183">
         <f t="shared" si="18"/>
@@ -55670,11 +55670,11 @@
       </c>
       <c r="U184">
         <f t="shared" ca="1" si="16"/>
-        <v>4.8824257028248025E-2</v>
+        <v>0.15417440513271291</v>
       </c>
       <c r="V184">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.8448300140572087</v>
+        <v>-9.7394798659527435</v>
       </c>
       <c r="Y184">
         <f t="shared" si="18"/>
@@ -55752,11 +55752,11 @@
       </c>
       <c r="U185">
         <f t="shared" ca="1" si="16"/>
-        <v>0.10566734969786698</v>
+        <v>0.15999681070993008</v>
       </c>
       <c r="V185">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.8943326503021325</v>
+        <v>-9.8400031892900692</v>
       </c>
       <c r="Y185">
         <f t="shared" si="18"/>
@@ -55834,11 +55834,11 @@
       </c>
       <c r="U186">
         <f t="shared" ca="1" si="16"/>
-        <v>0.13730853600232754</v>
+        <v>0.17167691915205074</v>
       </c>
       <c r="V186">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.6241722480211482</v>
+        <v>-9.5898038648714259</v>
       </c>
       <c r="Y186">
         <f t="shared" si="18"/>
@@ -55916,11 +55916,11 @@
       </c>
       <c r="U187">
         <f t="shared" ca="1" si="16"/>
-        <v>4.2662255087149249E-2</v>
+        <v>0.13611324404317923</v>
       </c>
       <c r="V187">
         <f t="shared" ca="1" si="17"/>
-        <v>-9.0195155714039199</v>
+        <v>-8.926064582447891</v>
       </c>
       <c r="Y187">
         <f t="shared" si="18"/>
@@ -55998,11 +55998,11 @@
       </c>
       <c r="U188">
         <f t="shared" ca="1" si="16"/>
-        <v>0.18373091969885327</v>
+        <v>7.5137149627680949E-2</v>
       </c>
       <c r="V188">
         <f t="shared" ca="1" si="17"/>
-        <v>-7.7660165486069817</v>
+        <v>-7.8746103186781546</v>
       </c>
       <c r="Y188">
         <f t="shared" si="18"/>
@@ -56080,11 +56080,11 @@
       </c>
       <c r="U189">
         <f t="shared" ca="1" si="16"/>
-        <v>0.14932982154291047</v>
+        <v>2.9016185593535051E-2</v>
       </c>
       <c r="V189">
         <f t="shared" ca="1" si="17"/>
-        <v>-6.3506701784570847</v>
+        <v>-6.4709838144064609</v>
       </c>
       <c r="Y189">
         <f t="shared" si="18"/>
@@ -56162,11 +56162,11 @@
       </c>
       <c r="U190">
         <f t="shared" ca="1" si="16"/>
-        <v>0.17175971133766529</v>
+        <v>0.15964599020680836</v>
       </c>
       <c r="V190">
         <f t="shared" ca="1" si="17"/>
-        <v>-4.639973604379982</v>
+        <v>-4.6520873255108386</v>
       </c>
       <c r="Y190">
         <f t="shared" si="18"/>
@@ -56244,11 +56244,11 @@
       </c>
       <c r="U191">
         <f t="shared" ca="1" si="16"/>
-        <v>2.7290434278497335E-2</v>
+        <v>0.17720677671135576</v>
       </c>
       <c r="V191">
         <f t="shared" ca="1" si="17"/>
-        <v>-2.972709565721495</v>
+        <v>-2.8227932232886368</v>
       </c>
       <c r="Y191">
         <f t="shared" si="18"/>
@@ -56326,11 +56326,11 @@
       </c>
       <c r="U192">
         <f t="shared" ca="1" si="16"/>
-        <v>3.6682910783950542E-2</v>
+        <v>0.19330796336284128</v>
       </c>
       <c r="V192">
         <f t="shared" ca="1" si="17"/>
-        <v>-1.1515837734984034</v>
+        <v>-0.99495872091951265</v>
       </c>
       <c r="Y192">
         <f t="shared" si="18"/>
@@ -56408,11 +56408,11 @@
       </c>
       <c r="U193">
         <f t="shared" ca="1" si="16"/>
-        <v>0.19189103959306431</v>
+        <v>0.17930301556720635</v>
       </c>
       <c r="V193">
         <f t="shared" ca="1" si="17"/>
-        <v>0.69189103959305986</v>
+        <v>0.67930301556720196</v>
       </c>
       <c r="Y193">
         <f t="shared" si="18"/>
@@ -56490,11 +56490,11 @@
       </c>
       <c r="U194">
         <f t="shared" ca="1" si="16"/>
-        <v>8.5992530359157108E-3</v>
+        <v>0.16947210478009134</v>
       </c>
       <c r="V194">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9583467213417529</v>
+        <v>2.1192195730859282</v>
       </c>
       <c r="Y194">
         <f t="shared" si="18"/>
@@ -56572,11 +56572,11 @@
       </c>
       <c r="U195">
         <f t="shared" ref="U195:U249" ca="1" si="21">$W$2*RAND()</f>
-        <v>9.6457693288301366E-2</v>
+        <v>0.1504884161784224</v>
       </c>
       <c r="V195">
         <f t="shared" ref="V195:V250" ca="1" si="22">T195+U195</f>
-        <v>3.158635519779371</v>
+        <v>3.2126662426694921</v>
       </c>
       <c r="Y195">
         <f t="shared" ref="Y195:Y252" si="23">B195*$AC$2</f>
@@ -56654,11 +56654,11 @@
       </c>
       <c r="U196">
         <f t="shared" ca="1" si="21"/>
-        <v>0.18293154338679185</v>
+        <v>9.1122743970836223E-2</v>
       </c>
       <c r="V196">
         <f t="shared" ca="1" si="22"/>
-        <v>3.9444123274102707</v>
+        <v>3.8526035279943152</v>
       </c>
       <c r="Y196">
         <f t="shared" si="23"/>
@@ -56736,11 +56736,11 @@
       </c>
       <c r="U197">
         <f t="shared" ca="1" si="21"/>
-        <v>0.10822260055424615</v>
+        <v>2.2849859076337343E-2</v>
       </c>
       <c r="V197">
         <f t="shared" ca="1" si="22"/>
-        <v>4.1082226005542459</v>
+        <v>4.0228498590763371</v>
       </c>
       <c r="Y197">
         <f t="shared" si="23"/>
@@ -56818,11 +56818,11 @@
       </c>
       <c r="U198">
         <f t="shared" ca="1" si="21"/>
-        <v>0.14544859413516764</v>
+        <v>1.6772293433514142E-2</v>
       </c>
       <c r="V198">
         <f t="shared" ca="1" si="22"/>
-        <v>4.0391028652206247</v>
+        <v>3.9104265645189709</v>
       </c>
       <c r="Y198">
         <f t="shared" si="23"/>
@@ -56900,11 +56900,11 @@
       </c>
       <c r="U199">
         <f t="shared" ca="1" si="21"/>
-        <v>0.13134382088716354</v>
+        <v>6.5243524217591057E-3</v>
       </c>
       <c r="V199">
         <f t="shared" ca="1" si="22"/>
-        <v>3.7091921663885219</v>
+        <v>3.5843726979231176</v>
       </c>
       <c r="Y199">
         <f t="shared" si="23"/>
@@ -56982,11 +56982,11 @@
       </c>
       <c r="U200">
         <f t="shared" ca="1" si="21"/>
-        <v>1.8630771953632476E-2</v>
+        <v>0.1595412406983453</v>
       </c>
       <c r="V200">
         <f t="shared" ca="1" si="22"/>
-        <v>3.0808085984447038</v>
+        <v>3.2217190671894165</v>
       </c>
       <c r="Y200">
         <f t="shared" si="23"/>
@@ -57064,11 +57064,11 @@
       </c>
       <c r="U201">
         <f t="shared" ca="1" si="21"/>
-        <v>6.0636147558263437E-2</v>
+        <v>5.7147255890938942E-2</v>
       </c>
       <c r="V201">
         <f t="shared" ca="1" si="22"/>
-        <v>2.4229472493911071</v>
+        <v>2.4194583577237827</v>
       </c>
       <c r="Y201">
         <f t="shared" si="23"/>
@@ -57146,11 +57146,11 @@
       </c>
       <c r="U202">
         <f t="shared" ca="1" si="21"/>
-        <v>0.11899522906067045</v>
+        <v>0.10858477205624575</v>
       </c>
       <c r="V202">
         <f t="shared" ca="1" si="22"/>
-        <v>1.6185084968664456</v>
+        <v>1.608098039862021</v>
       </c>
       <c r="Y202">
         <f t="shared" si="23"/>
@@ -57228,11 +57228,11 @@
       </c>
       <c r="U203">
         <f t="shared" ca="1" si="21"/>
-        <v>6.9604129163052794E-2</v>
+        <v>0.14390869700179207</v>
       </c>
       <c r="V203">
         <f t="shared" ca="1" si="22"/>
-        <v>0.56960412916305592</v>
+        <v>0.6439086970017952</v>
       </c>
       <c r="Y203">
         <f t="shared" si="23"/>
@@ -57310,11 +57310,11 @@
       </c>
       <c r="U204">
         <f t="shared" ca="1" si="21"/>
-        <v>0.18771104500154345</v>
+        <v>4.3109315807349051E-2</v>
       </c>
       <c r="V204">
         <f t="shared" ca="1" si="22"/>
-        <v>-0.41814795171876729</v>
+        <v>-0.56274968091296174</v>
       </c>
       <c r="Y204">
         <f t="shared" si="23"/>
@@ -57392,11 +57392,11 @@
       </c>
       <c r="U205">
         <f t="shared" ca="1" si="21"/>
-        <v>9.4935421542006793E-2</v>
+        <v>0.16372334529680033</v>
       </c>
       <c r="V205">
         <f t="shared" ca="1" si="22"/>
-        <v>-1.6895273347894895</v>
+        <v>-1.620739411034696</v>
       </c>
       <c r="Y205">
         <f t="shared" si="23"/>
@@ -57474,11 +57474,11 @@
       </c>
       <c r="U206">
         <f t="shared" ca="1" si="21"/>
-        <v>0.15729618311190219</v>
+        <v>7.9262349855067304E-2</v>
       </c>
       <c r="V206">
         <f t="shared" ca="1" si="22"/>
-        <v>-2.8427160341928568</v>
+        <v>-2.9207498674496915</v>
       </c>
       <c r="Y206">
         <f t="shared" si="23"/>
@@ -57556,11 +57556,11 @@
       </c>
       <c r="U207">
         <f t="shared" ca="1" si="21"/>
-        <v>4.832697171819416E-2</v>
+        <v>8.4290078412053701E-2</v>
       </c>
       <c r="V207">
         <f t="shared" ca="1" si="22"/>
-        <v>-4.1672102719503181</v>
+        <v>-4.1312471652564584</v>
       </c>
       <c r="Y207">
         <f t="shared" si="23"/>
@@ -57638,11 +57638,11 @@
       </c>
       <c r="U208">
         <f t="shared" ca="1" si="21"/>
-        <v>0.15665467490772034</v>
+        <v>8.3373283417312302E-2</v>
       </c>
       <c r="V208">
         <f t="shared" ca="1" si="22"/>
-        <v>-5.2374863283719559</v>
+        <v>-5.3107677198623637</v>
       </c>
       <c r="Y208">
         <f t="shared" si="23"/>
@@ -57720,11 +57720,11 @@
       </c>
       <c r="U209">
         <f t="shared" ca="1" si="21"/>
-        <v>0.18184532517827595</v>
+        <v>7.5984436389053306E-2</v>
       </c>
       <c r="V209">
         <f t="shared" ca="1" si="22"/>
-        <v>-6.3181546748217166</v>
+        <v>-6.4240155636109399</v>
       </c>
       <c r="Y209">
         <f t="shared" si="23"/>
@@ -57802,11 +57802,11 @@
       </c>
       <c r="U210">
         <f t="shared" ca="1" si="21"/>
-        <v>1.9103333955635283E-2</v>
+        <v>6.6454371253015856E-2</v>
       </c>
       <c r="V210">
         <f t="shared" ca="1" si="22"/>
-        <v>-7.4804099338501473</v>
+        <v>-7.4330588965527662</v>
       </c>
       <c r="Y210">
         <f t="shared" si="23"/>
@@ -57884,11 +57884,11 @@
       </c>
       <c r="U211">
         <f t="shared" ca="1" si="21"/>
-        <v>4.5678130717666757E-2</v>
+        <v>7.8110672762242317E-2</v>
       </c>
       <c r="V211">
         <f t="shared" ca="1" si="22"/>
-        <v>-8.316640824239137</v>
+        <v>-8.2842082821945606</v>
       </c>
       <c r="Y211">
         <f t="shared" si="23"/>
@@ -57966,11 +57966,11 @@
       </c>
       <c r="U212">
         <f t="shared" ca="1" si="21"/>
-        <v>0.12269194432059834</v>
+        <v>0.17280680727583503</v>
       </c>
       <c r="V212">
         <f t="shared" ca="1" si="22"/>
-        <v>-8.939485882170473</v>
+        <v>-8.8893710192152362</v>
       </c>
       <c r="Y212">
         <f t="shared" si="23"/>
@@ -58048,11 +58048,11 @@
       </c>
       <c r="U213">
         <f t="shared" ca="1" si="21"/>
-        <v>0.19345702817515506</v>
+        <v>0.1538484708815322</v>
       </c>
       <c r="V213">
         <f t="shared" ca="1" si="22"/>
-        <v>-9.3843913173262035</v>
+        <v>-9.4239998746198257</v>
       </c>
       <c r="Y213">
         <f t="shared" si="23"/>
@@ -58130,11 +58130,11 @@
       </c>
       <c r="U214">
         <f t="shared" ca="1" si="21"/>
-        <v>7.3308820022584459E-2</v>
+        <v>0.12097943402331424</v>
       </c>
       <c r="V214">
         <f t="shared" ca="1" si="22"/>
-        <v>-9.820345451062872</v>
+        <v>-9.7726748370621426</v>
       </c>
       <c r="Y214">
         <f t="shared" si="23"/>
@@ -58212,11 +58212,11 @@
       </c>
       <c r="U215">
         <f t="shared" ca="1" si="21"/>
-        <v>0.1327709156629526</v>
+        <v>0.18413629871192572</v>
       </c>
       <c r="V215">
         <f t="shared" ca="1" si="22"/>
-        <v>-9.8672290843370476</v>
+        <v>-9.8158637012880749</v>
       </c>
       <c r="Y215">
         <f t="shared" si="23"/>
@@ -58291,11 +58291,11 @@
       </c>
       <c r="U216">
         <f t="shared" ca="1" si="21"/>
-        <v>0.18029631856754202</v>
+        <v>2.4747008575817509E-2</v>
       </c>
       <c r="V216">
         <f t="shared" ca="1" si="22"/>
-        <v>0.18029631856754202</v>
+        <v>2.4747008575817509E-2</v>
       </c>
       <c r="Y216">
         <f t="shared" si="23"/>
@@ -58370,11 +58370,11 @@
       </c>
       <c r="U217">
         <f t="shared" ca="1" si="21"/>
-        <v>5.4897161800181005E-2</v>
+        <v>7.0948559846423898E-2</v>
       </c>
       <c r="V217">
         <f t="shared" ca="1" si="22"/>
-        <v>5.4897161800181005E-2</v>
+        <v>7.0948559846423898E-2</v>
       </c>
       <c r="Y217">
         <f t="shared" si="23"/>
@@ -58449,11 +58449,11 @@
       </c>
       <c r="U218">
         <f t="shared" ca="1" si="21"/>
-        <v>0.11355777703549148</v>
+        <v>9.2305994672119418E-3</v>
       </c>
       <c r="V218">
         <f t="shared" ca="1" si="22"/>
-        <v>0.11355777703549148</v>
+        <v>9.2305994672119418E-3</v>
       </c>
       <c r="Y218">
         <f t="shared" si="23"/>
@@ -58528,11 +58528,11 @@
       </c>
       <c r="U219">
         <f t="shared" ca="1" si="21"/>
-        <v>7.7287461448809491E-3</v>
+        <v>0.17366855012192173</v>
       </c>
       <c r="V219">
         <f t="shared" ca="1" si="22"/>
-        <v>7.7287461448809491E-3</v>
+        <v>0.17366855012192173</v>
       </c>
       <c r="Y219">
         <f t="shared" si="23"/>
@@ -58607,11 +58607,11 @@
       </c>
       <c r="U220">
         <f t="shared" ca="1" si="21"/>
-        <v>5.2543536519569806E-2</v>
+        <v>5.3262254357928529E-2</v>
       </c>
       <c r="V220">
         <f t="shared" ca="1" si="22"/>
-        <v>5.2543536519569806E-2</v>
+        <v>5.3262254357928529E-2</v>
       </c>
       <c r="Y220">
         <f t="shared" si="23"/>
@@ -58686,11 +58686,11 @@
       </c>
       <c r="U221">
         <f t="shared" ca="1" si="21"/>
-        <v>0.17234221272303665</v>
+        <v>2.5067959381628313E-2</v>
       </c>
       <c r="V221">
         <f t="shared" ca="1" si="22"/>
-        <v>0.17234221272303665</v>
+        <v>2.5067959381628313E-2</v>
       </c>
       <c r="Y221">
         <f t="shared" si="23"/>
@@ -58765,11 +58765,11 @@
       </c>
       <c r="U222">
         <f t="shared" ca="1" si="21"/>
-        <v>0.17016355448458087</v>
+        <v>0.14355372931976415</v>
       </c>
       <c r="V222">
         <f t="shared" ca="1" si="22"/>
-        <v>0.17016355448458087</v>
+        <v>0.14355372931976415</v>
       </c>
       <c r="Y222">
         <f t="shared" si="23"/>
@@ -58844,11 +58844,11 @@
       </c>
       <c r="U223">
         <f t="shared" ca="1" si="21"/>
-        <v>0.15026153904755415</v>
+        <v>0.12383634164016011</v>
       </c>
       <c r="V223">
         <f t="shared" ca="1" si="22"/>
-        <v>0.15026153904755415</v>
+        <v>0.12383634164016011</v>
       </c>
       <c r="Y223">
         <f t="shared" si="23"/>
@@ -58923,11 +58923,11 @@
       </c>
       <c r="U224">
         <f t="shared" ca="1" si="21"/>
-        <v>0.14731936009137847</v>
+        <v>0.11143534882423907</v>
       </c>
       <c r="V224">
         <f t="shared" ca="1" si="22"/>
-        <v>0.14731936009137847</v>
+        <v>0.11143534882423907</v>
       </c>
       <c r="Y224">
         <f t="shared" si="23"/>
@@ -59002,11 +59002,11 @@
       </c>
       <c r="U225">
         <f t="shared" ca="1" si="21"/>
-        <v>0.19052707592281648</v>
+        <v>7.1147802767459273E-2</v>
       </c>
       <c r="V225">
         <f t="shared" ca="1" si="22"/>
-        <v>0.19052707592281648</v>
+        <v>7.1147802767459273E-2</v>
       </c>
       <c r="Y225">
         <f t="shared" si="23"/>
@@ -59081,11 +59081,11 @@
       </c>
       <c r="U226">
         <f t="shared" ca="1" si="21"/>
-        <v>0.14322984311744905</v>
+        <v>6.60286838604804E-2</v>
       </c>
       <c r="V226">
         <f t="shared" ca="1" si="22"/>
-        <v>0.14322984311744905</v>
+        <v>6.60286838604804E-2</v>
       </c>
       <c r="Y226">
         <f t="shared" si="23"/>
@@ -59160,11 +59160,11 @@
       </c>
       <c r="U227">
         <f t="shared" ca="1" si="21"/>
-        <v>0.160714596080033</v>
+        <v>0.19124238905306634</v>
       </c>
       <c r="V227">
         <f t="shared" ca="1" si="22"/>
-        <v>0.160714596080033</v>
+        <v>0.19124238905306634</v>
       </c>
       <c r="Y227">
         <f t="shared" si="23"/>
@@ -59239,11 +59239,11 @@
       </c>
       <c r="U228">
         <f t="shared" ca="1" si="21"/>
-        <v>0.13789194564396409</v>
+        <v>0.12326347955949429</v>
       </c>
       <c r="V228">
         <f t="shared" ca="1" si="22"/>
-        <v>0.13789194564396409</v>
+        <v>0.12326347955949429</v>
       </c>
       <c r="Y228">
         <f t="shared" si="23"/>
@@ -59318,11 +59318,11 @@
       </c>
       <c r="U229">
         <f t="shared" ca="1" si="21"/>
-        <v>0.15621306090606255</v>
+        <v>8.1081147885180976E-2</v>
       </c>
       <c r="V229">
         <f t="shared" ca="1" si="22"/>
-        <v>0.15621306090606255</v>
+        <v>8.1081147885180976E-2</v>
       </c>
       <c r="Y229">
         <f t="shared" si="23"/>
@@ -59397,11 +59397,11 @@
       </c>
       <c r="U230">
         <f t="shared" ca="1" si="21"/>
-        <v>3.0338909610067778E-2</v>
+        <v>0.12835415009314674</v>
       </c>
       <c r="V230">
         <f t="shared" ca="1" si="22"/>
-        <v>3.0338909610067778E-2</v>
+        <v>0.12835415009314674</v>
       </c>
       <c r="Y230">
         <f t="shared" si="23"/>
@@ -59476,11 +59476,11 @@
       </c>
       <c r="U231">
         <f t="shared" ca="1" si="21"/>
-        <v>1.9135930333314068E-3</v>
+        <v>0.19622711689225508</v>
       </c>
       <c r="V231">
         <f t="shared" ca="1" si="22"/>
-        <v>1.9135930333314068E-3</v>
+        <v>0.19622711689225508</v>
       </c>
       <c r="Y231">
         <f t="shared" si="23"/>
@@ -59555,11 +59555,11 @@
       </c>
       <c r="U232">
         <f t="shared" ca="1" si="21"/>
-        <v>0.11495796362388649</v>
+        <v>0.18057717670123807</v>
       </c>
       <c r="V232">
         <f t="shared" ca="1" si="22"/>
-        <v>0.11495796362388649</v>
+        <v>0.18057717670123807</v>
       </c>
       <c r="Y232">
         <f t="shared" si="23"/>
@@ -59634,11 +59634,11 @@
       </c>
       <c r="U233">
         <f t="shared" ca="1" si="21"/>
-        <v>3.1912120970732552E-2</v>
+        <v>0.17333100072024893</v>
       </c>
       <c r="V233">
         <f t="shared" ca="1" si="22"/>
-        <v>3.1912120970732552E-2</v>
+        <v>0.17333100072024893</v>
       </c>
       <c r="Y233">
         <f t="shared" si="23"/>
@@ -59713,11 +59713,11 @@
       </c>
       <c r="U234">
         <f t="shared" ca="1" si="21"/>
-        <v>3.9852244306620245E-2</v>
+        <v>7.8002666524799105E-2</v>
       </c>
       <c r="V234">
         <f t="shared" ca="1" si="22"/>
-        <v>3.9852244306620245E-2</v>
+        <v>7.8002666524799105E-2</v>
       </c>
       <c r="Y234">
         <f t="shared" si="23"/>
@@ -59792,11 +59792,11 @@
       </c>
       <c r="U235">
         <f t="shared" ca="1" si="21"/>
-        <v>4.3088083276668847E-2</v>
+        <v>6.1654825862910094E-2</v>
       </c>
       <c r="V235">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3088083276668847E-2</v>
+        <v>6.1654825862910094E-2</v>
       </c>
       <c r="Y235">
         <f t="shared" si="23"/>
@@ -59871,11 +59871,11 @@
       </c>
       <c r="U236">
         <f t="shared" ca="1" si="21"/>
-        <v>5.2904946402926339E-2</v>
+        <v>8.5138967962879855E-2</v>
       </c>
       <c r="V236">
         <f t="shared" ca="1" si="22"/>
-        <v>5.2904946402926339E-2</v>
+        <v>8.5138967962879855E-2</v>
       </c>
       <c r="Y236">
         <f t="shared" si="23"/>
@@ -59950,11 +59950,11 @@
       </c>
       <c r="U237">
         <f t="shared" ca="1" si="21"/>
-        <v>0.1881212815311106</v>
+        <v>0.14276360130239887</v>
       </c>
       <c r="V237">
         <f t="shared" ca="1" si="22"/>
-        <v>0.1881212815311106</v>
+        <v>0.14276360130239887</v>
       </c>
       <c r="Y237">
         <f t="shared" si="23"/>
@@ -60029,11 +60029,11 @@
       </c>
       <c r="U238">
         <f t="shared" ca="1" si="21"/>
-        <v>5.6298173172896586E-2</v>
+        <v>0.16393035265704659</v>
       </c>
       <c r="V238">
         <f t="shared" ca="1" si="22"/>
-        <v>5.6298173172896586E-2</v>
+        <v>0.16393035265704659</v>
       </c>
       <c r="Y238">
         <f t="shared" si="23"/>
@@ -60108,11 +60108,11 @@
       </c>
       <c r="U239">
         <f t="shared" ca="1" si="21"/>
-        <v>0.13476196170154367</v>
+        <v>8.7130205723084928E-2</v>
       </c>
       <c r="V239">
         <f t="shared" ca="1" si="22"/>
-        <v>0.13476196170154367</v>
+        <v>8.7130205723084928E-2</v>
       </c>
       <c r="Y239">
         <f t="shared" si="23"/>
@@ -60187,11 +60187,11 @@
       </c>
       <c r="U240">
         <f t="shared" ca="1" si="21"/>
-        <v>0.1941137083892184</v>
+        <v>8.0993860293899128E-2</v>
       </c>
       <c r="V240">
         <f t="shared" ca="1" si="22"/>
-        <v>0.1941137083892184</v>
+        <v>8.0993860293899128E-2</v>
       </c>
       <c r="Y240">
         <f t="shared" si="23"/>
@@ -60266,11 +60266,11 @@
       </c>
       <c r="U241">
         <f t="shared" ca="1" si="21"/>
-        <v>0.15235261347508866</v>
+        <v>1.8884233383478846E-2</v>
       </c>
       <c r="V241">
         <f t="shared" ca="1" si="22"/>
-        <v>0.15235261347508866</v>
+        <v>1.8884233383478846E-2</v>
       </c>
       <c r="Y241">
         <f t="shared" si="23"/>
@@ -60345,11 +60345,11 @@
       </c>
       <c r="U242">
         <f t="shared" ca="1" si="21"/>
-        <v>0.15612144585530491</v>
+        <v>7.5447301563737496E-2</v>
       </c>
       <c r="V242">
         <f t="shared" ca="1" si="22"/>
-        <v>0.15612144585530491</v>
+        <v>7.5447301563737496E-2</v>
       </c>
       <c r="Y242">
         <f t="shared" si="23"/>
@@ -60424,11 +60424,11 @@
       </c>
       <c r="U243">
         <f t="shared" ca="1" si="21"/>
-        <v>0.16399594959950947</v>
+        <v>0.11849300823804371</v>
       </c>
       <c r="V243">
         <f t="shared" ca="1" si="22"/>
-        <v>0.16399594959950947</v>
+        <v>0.11849300823804371</v>
       </c>
       <c r="Y243">
         <f t="shared" si="23"/>
@@ -60503,11 +60503,11 @@
       </c>
       <c r="U244">
         <f t="shared" ca="1" si="21"/>
-        <v>5.1692365805431885E-2</v>
+        <v>5.5234917621340189E-2</v>
       </c>
       <c r="V244">
         <f t="shared" ca="1" si="22"/>
-        <v>5.1692365805431885E-2</v>
+        <v>5.5234917621340189E-2</v>
       </c>
       <c r="Y244">
         <f t="shared" si="23"/>
@@ -60582,11 +60582,11 @@
       </c>
       <c r="U245">
         <f t="shared" ca="1" si="21"/>
-        <v>0.12099417967274145</v>
+        <v>3.3028696230532596E-2</v>
       </c>
       <c r="V245">
         <f t="shared" ca="1" si="22"/>
-        <v>0.12099417967274145</v>
+        <v>3.3028696230532596E-2</v>
       </c>
       <c r="Y245">
         <f t="shared" si="23"/>
@@ -60661,11 +60661,11 @@
       </c>
       <c r="U246">
         <f t="shared" ca="1" si="21"/>
-        <v>3.5615499829871423E-2</v>
+        <v>0.12378514252357194</v>
       </c>
       <c r="V246">
         <f t="shared" ca="1" si="22"/>
-        <v>3.5615499829871423E-2</v>
+        <v>0.12378514252357194</v>
       </c>
       <c r="Y246">
         <f t="shared" si="23"/>
@@ -60740,11 +60740,11 @@
       </c>
       <c r="U247">
         <f t="shared" ca="1" si="21"/>
-        <v>4.8068815955805123E-2</v>
+        <v>0.1021025988609793</v>
       </c>
       <c r="V247">
         <f t="shared" ca="1" si="22"/>
-        <v>4.8068815955805123E-2</v>
+        <v>0.1021025988609793</v>
       </c>
       <c r="Y247">
         <f t="shared" si="23"/>
@@ -60819,11 +60819,11 @@
       </c>
       <c r="U248">
         <f t="shared" ca="1" si="21"/>
-        <v>0.13331428675772633</v>
+        <v>0.17199184858817484</v>
       </c>
       <c r="V248">
         <f t="shared" ca="1" si="22"/>
-        <v>0.13331428675772633</v>
+        <v>0.17199184858817484</v>
       </c>
       <c r="Y248">
         <f t="shared" si="23"/>
@@ -60898,11 +60898,11 @@
       </c>
       <c r="U249">
         <f t="shared" ca="1" si="21"/>
-        <v>7.8344905652587296E-2</v>
+        <v>8.7462611480192909E-2</v>
       </c>
       <c r="V249">
         <f t="shared" ca="1" si="22"/>
-        <v>7.8344905652587296E-2</v>
+        <v>8.7462611480192909E-2</v>
       </c>
       <c r="Y249">
         <f t="shared" si="23"/>
